--- a/job_info_gpt3_125.xlsx
+++ b/job_info_gpt3_125.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Destinatários</t>
+          <t>Curso</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Semestre/Previsão de Formatura</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Áreas de Atuação</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Responsabilidades</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Nome do Arquivo</t>
         </is>
@@ -508,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Disponibilidade 30 horas/semana, conhecimento em marketing digital, Google Planilhas, inglês intermediário</t>
+          <t>Disponibilidade para trabalhar 30 horas semanais, previsão de formatura até Dezembro/2025, conhecimento técnico em marketing digital, Google planilhas, inglês intermediário</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,7 +523,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>30 horas/semana</t>
+          <t>Pelo menos 30 horas semanais</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -528,20 +533,25 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Estudantes com previsão de formatura até dezembro de 2025</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Customer Success, Marketing Digital</t>
+          <t>Até Dezembro/2025</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Gerenciar carteira de clientes, representar a empresa, criar indicadores de saúde dos clientes, identificar oportunidades de upsell, propor melhorias nos processos de customer success.</t>
+          <t>Customer Success, Marketing Digital, Tecnologia</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>Gerenciar carteira de clientes, representar a empresa, criar indicadores de saúde dos clientes, identificar oportunidades de venda, propor melhorias nos processos de customer success.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Vaga (1).pdf</t>
         </is>
@@ -555,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estágio em Desenvolvimento</t>
+          <t>Estágio em Desenvolvimento - Área Corporativa (Remoto)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -565,7 +575,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Conhecimento avançado em linguagem C, HTML, CSS, JavaScript, algoritmos, estruturas de dados, orientação a objetos, boas práticas de produção de software</t>
+          <t>Conhecimento avançado em linguagem C, HTML, CSS, JavaScript, algoritmos, estruturas de dados, orientação a objetos, boas práticas de produção de software.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -585,20 +595,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desenvolvedores apaixonados por tecnologia e linguagem C</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Desenvolvimento de portais usando ferramentas internas da Telcomanager</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Participar de projetos de construção de portais, manter ferramentas, criar e manter componentes de sistemas para a web, seguir as melhores práticas de programação e arquitetura.</t>
+          <t>Desenvolvimento, Tecnologia da Informação, Telecomunicações</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>Participar de projetos de construções de portais, manutenção de ferramentas, criação e manutenção de componentes de sistemas para a web, acompanhar tendências de tecnologia.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Vaga (10).pdf</t>
         </is>
@@ -622,7 +637,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cursando ensino superior em Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas correlatas, conhecimento em Java, Hibernate/JPA, bancos de dados, capacidade de trabalhar em equipe.</t>
+          <t>Cursando Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas correlatas, Conhecimento em Orientação a Objetos, Java 8+, Spring Boot, Hibernate/JPA, bancos de dados relacionais ou NoSQL, capacidade de atuar em equipe e boa comunicação</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -637,25 +652,30 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Trabalho híbrido, auxílio home office, benefício flexível, acesso a TotalPass, plataforma Vittude, crescimento profissional contínuo, dia de folga no aniversário.</t>
+          <t>Trabalho Híbrido, Auxílio Home Office, Benefício Flexível, TotalPass, Vittude, Crescimento Profissional Contínuo, Dia de folga no aniversário</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Estudantes de cursos relacionados à tecnologia</t>
+          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas correlatas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Desenvolvimento de aplicações Java, arquitetura de microsserviços, metodologia ágil Scrum</t>
+          <t>A partir de Junho/2026</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Participar do desenvolvimento de aplicações Java, colaborar com a equipe, contribuir com a documentação técnica, resolver problemas das aplicações, trabalhar com a metodologia ágil Scrum.</t>
+          <t>Desenvolvimento de aplicações Java, microsserviços, digitalização de processos, integração de soluções</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
+        <is>
+          <t>Participar no desenvolvimento de aplicações Java, colaborar com a equipe em diversas fases do ciclo de vida do software, contribuir com documentação técnica, resolver problemas das aplicações, trabalhar com metodologia ágil Scrum.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Vaga (11).pdf</t>
         </is>
@@ -679,7 +699,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cursando superior em Engenharia/Ciência da Computação, Sistemas de Informação ou similar, conhecimento em desenvolvimento de software para soluções Web, desenvolvimento em JavaScript, TypeScript, Angular, Java, Spring Boot, tecnologias em nuvem, programação de testes automatizados, ferramentas de controle de versão (Git), Inglês avançado</t>
+          <t>Cursando Engenharia/Ciência da Computação, Sistemas de Informação ou similar; Conhecimento em desenvolvimento de software web, JavaScript, TypeScript, Angular, Java, Spring Boot, tecnologias em nuvem, testes automatizados, Git; Inglês para conversação, escrita e leitura.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -699,20 +719,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pessoas apaixonadas por tecnologia, motivadas por desafios, que gostem de trabalhar em equipe e possuam espírito colaborativo</t>
+          <t>Engenharia/Ciência da Computação, Sistemas de Informação ou similar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Desenvolvimento de novas funcionalidades em sistemas web frontend/backend, suporte em testes unitários e de integração automatizados, desenvolvimento de soluções web em nuvem, métodos ágeis, revisão de código e definição de interfaces</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Apoio no desenvolvimento de novas funcionalidades em sistemas web, suporte em testes automatizados, desenvolvimento de soluções web em nuvem, colaboração com o time para propostas de soluções aos usuários/clientes.</t>
+          <t>Desenvolvimento de novas funcionalidades em sistemas web, suporte em testes automatizados, desenvolvimento de soluções web em nuvem, métodos ágeis, revisão de código, proposta de soluções para usuários/clientes.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>Apoio no desenvolvimento de novas funcionalidades em sistemas web frontend/backend, suporte no desenvolvimento de testes automatizados, auxílio no desenvolvimento de soluções web em nuvem e testes automatizados, cooperação com o time para revisão de código e definição de interfaces.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Vaga (12).pdf</t>
         </is>
@@ -736,12 +761,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cursando áreas relacionadas à tecnologia</t>
+          <t>Cursando Análise e Desenvolvimento de Sistemas, Ciência da Computação, Engenharia da Computação, Redes de computadores, Segurança da informação, Sistema de informação e Sistemas para Internet, ou cursos similares</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -756,20 +781,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Análise e Desenvolvimento de Sistemas, Ciência da Computação, Engenharia da Computação, Redes de computadores, Segurança da informação, Sistema de informação e Sistemas para Internet</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Consultoria Técnica, Intel SaaS (Plataformas), Intel SaaS (Cyber Threat Intelligence), Intel SaaS (Situacional de Cyber Threat Intelligence), Resposta a Incidentes</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Atividades específicas para cada área de atuação.</t>
+          <t>Consultoria Técnica, Intel SaaS (Plataformas, Cyber Threat Intelligence e Situacional de Cyber Threat Intelligence), Resposta a Incidentes</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
+        <is>
+          <t>Adquirir conhecimentos, realizar práticas supervisionadas, participar de projetos reais, desenvolver sistemas, aprender sobre requisitos HTTP, modelagem de dados, manter plataformas de acesso aos dados, atender pedidos de outras equipes, participar de reuniões, aprender sobre engenharia de detecção, técnicas de detecção de ameaças, práticas de mercado, utilizar tecnologias e frameworks de mercado, análise de documentos e indicadores, realizar práticas supervisionadas em inteligência em fontes abertas, produzir relatórios de inteligência, aprender sobre resposta a incidentes, preservação de dados, diagnósticos de vulnerabilidades, recuperação de dados, elaborar relatórios.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Vaga (13).pdf</t>
         </is>
@@ -793,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cursando Economia, Administração ou Engenharia, Inglês avançado, Office avançado</t>
+          <t>Cursando Economia, Administração ou Engenharia; Formatura a partir de 07/2026; Conhecimentos sobre mercado de capitais; Inglês avançado; Office avançado</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -813,20 +843,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Estudantes de Economia, Administração ou Engenharia</t>
+          <t>Economia, Administração ou Engenharia</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>A partir de 07/2026</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>Produtos</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Elaboração de diligências, Automatização e melhorias de processos, Atualização de relatórios, Atualização de rotinas mensais.</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Vaga (14).pdf</t>
         </is>
@@ -840,7 +875,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estágio em engenharia elétrica</t>
+          <t>Estágio em Engenharia Elétrica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -850,7 +885,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Prazo 16/08/2024</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,30 +895,35 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Presencial</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Não mencionado</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Não mencionado</t>
+          <t>Engenharia Elétrica</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Engenharia elétrica</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>Engenharia Elétrica</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>Realizar levantamentos de equipamentos e instalações elétricas, realizar pesquisas e elaborar estudos, desenvolver projetos executivos de elétrica, elaborar relatórios e documentos técnicos.</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Vaga (15).pdf</t>
         </is>
@@ -922,25 +962,30 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alimentação na empresa, assistência médica e odontológica, auxílio afastamento, cesta básica, convênios comerciais, elevação de escolaridade, ginástica laboral, incentivo educacional, kit bb e casamento, premiação anual por assiduidade, seguro de vida em grupo, vale-transporte ou estacionamento</t>
+          <t>Alimentação na empresa, assistência médica e odontológica, auxílio afastamento, cesta básica, convênios e descontos, elevação de escolaridade, ginástica laboral, incentivo educacional, premiação por assiduidade, seguro de vida, vale-transporte ou estacionamento</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Técnico/Pós-Médio Completo</t>
+          <t>Mecânica ou áreas afins</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Industrial, Metal Mecânica</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Desenvolver projetos mecânicos, realizar modelamento em software tridimensional, compor listas de produtos no sistema ERP, acompanhar execução dos projetos junto à produção.</t>
+          <t>Industrial, metal mecânica</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
+        <is>
+          <t>Desenvolver projetos mecânicos, modelamento em software tridimensional, composição de listas de produtos, acompanhamento da execução dos projetos.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Vaga (16).pdf</t>
         </is>
@@ -954,7 +999,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Estágio Téc. em Eletrotécnica, Mecatrônica e Eletrônica</t>
+          <t>Estágio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -964,7 +1009,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cursando técnico em Eletrônica, Eletrotécnica ou Mecatrônica, 2º ao 5º ano</t>
+          <t>Cursando Técnico em Eletrônica, Eletrotécnica ou Mecatrônica, 2º ao 5º ano</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -979,25 +1024,30 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Vale transporte, Vale refeição de R$3,12, PLR, Gympass</t>
+          <t>Vale transporte, Vale refeição de R$ 3,12, PLR, Gympass</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Estagiários dos cursos técnicos mencionados</t>
+          <t>Técnico em Eletrônica, Técnico em Eletrotécnica, Técnico em Mecatrônica</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Até 08/2024</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Equipamentos de videocirurgia</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Auxiliar o Técnico ou Assistente, executar vistorias, manutenção dos equipamentos, vistoriar e arrumar o estoque, manter o laboratório organizado.</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
+        <is>
+          <t>Auxiliar técnico ou assistente, executar vistoria, orçamento, manutenção preventiva e corretiva, vistoriar e arrumar estoque, manter laboratório organizado.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Vaga (17).pdf</t>
         </is>
@@ -1021,7 +1071,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Superior em Administração de Empresas, Engenharia ou áreas afins, Experiência anterior na função</t>
+          <t>Superior em Administração de Empresas, Engenharia ou áreas afins; Experiência anterior na função</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1031,30 +1081,35 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Estudantes ou formados em Administração de Empresas, Engenharia ou áreas afins</t>
+          <t>Administração de Empresas, Engenharia ou áreas afins</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Inspeção técnica</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Acompanhar obras, identificar divergências, acompanhar vistoria de local nos equipamentos.</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
+        <is>
+          <t>Acompanhar obras, identificar divergências entre projeto x real, acompanhar vistoria de local nos equipamentos.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Vaga (18).pdf</t>
         </is>
@@ -1078,7 +1133,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cursando Engenharia de Produção, Excel/Google Sheets, disponibilidade 30h semanais</t>
+          <t>Cursando Engenharia de Produção, Excel/Google Sheets, Disponibilidade 30h semanais</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1098,20 +1153,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia de Produção ou áreas afins</t>
+          <t>Engenharia de Produção ou áreas afins</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Produção</t>
+          <t>Prazo 16/08/2024</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cooperar na criação de relatórios de acompanhamento de produção, contribuir na criação e acompanhamento de indicadores, auxiliar na criação de Dashboards, auxiliar no acompanhamento das atividades da ISO 9001.</t>
+          <t>Produção, ISO 9001</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
+        <is>
+          <t>Criar relatórios de acompanhamento de produção, criar e acompanhar indicadores, auxiliar na criação de Dashboards, acompanhar atividades da ISO 9001.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Vaga (19).pdf</t>
         </is>
@@ -1135,7 +1195,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ambiente remoto adequado, cursando ensino superior em áreas específicas, afinidade com plataformas digitais, boa comunicação, capacidade de negociação</t>
+          <t>Ambiente remoto adequado, cursando ensino superior em áreas específicas, afinidade com plataformas digitais, boa comunicação, capacidade de negociação, foco no resultado, capacidade de estabelecer relacionamento com clientes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1150,25 +1210,30 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Desenvolvimento profissional, horizontalidade, clima de trabalho agradável, day off, trabalho remoto</t>
+          <t>Desenvolvimento profissional, horizontalidade, trabalho em equipe, clima de trabalho agradável, day off, formato 100% remoto</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Estudantes de ensino superior</t>
+          <t>Administração, Comércio Exterior, Engenharia de Produção, Gestão Comercial, Marketing ou áreas afins</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Administração, Comércio Exterior, Engenharia de Produção, Gestão Comercial, Marketing</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Conhecer o mercado imobiliário, mapear oportunidades, ativar potenciais parceiros, qualificar leads, conectar pré-venda com desenvolvedores, observar métricas, contribuir para jornada do cliente.</t>
+          <t>Mercado imobiliário, Pré-vendas B2B</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
+        <is>
+          <t>Conhecer o mercado imobiliário, mapear oportunidades, ativar potenciais parceiros em canais digitais, qualificar leads, conectar pré-venda com desenvolvedores de negócio, observar métricas e indicadores, contribuir para a construção de uma jornada de cliente eficiente.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Vaga (2).pdf</t>
         </is>
@@ -1212,20 +1277,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia Civil</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>16/08/2024</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acompanhar os serviços, auxiliar em cotações, conferir material, planejamento da obra, garantir uso de EPIs.</t>
+          <t>Construção civil, Engenharia Civil</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
+        <is>
+          <t>Acompanhar os serviços, auxiliar em cotações, conferir material, planejamento da obra, garantir uso de epi's.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Vaga (20).pdf</t>
         </is>
@@ -1264,25 +1334,30 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Não informados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Técnicos em Eletrônica</t>
+          <t>Técnico em Eletrônica</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>Eletrônica</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Realizar diagnóstico nos equipamentos, realizar reparo em placas de notebooks e computadores, manusear o sistema interno, suporte ao cliente, formatar e instalar programas.</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
+        <is>
+          <t>Diagnosticar equipamentos, reparar placas de notebooks e computadores, suporte ao cliente, formatar e instalar programas.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Vaga (21).pdf</t>
         </is>
@@ -1306,17 +1381,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cursando Engenharia Civil a partir do 5º semestre, morar próximo ao Eusébio</t>
+          <t>Cursando Engenharia civil a partir do 5º semestre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>R$650,00</t>
+          <t>R$ 650,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Meio período (manhã ou tarde)</t>
+          <t>Meio período</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1326,20 +1401,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia Civil</t>
+          <t>Engenharia civil</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>5º semestre em diante</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Auxiliar o engenheiro na rotina administrativa da obra, controle de projetos, medições, replanejamento e acompanhamento das atividades técnicas na execução dos serviços, acompanhar o cronograma físico e financeiro da obra.</t>
+          <t>Engenharia civil</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
+        <is>
+          <t>Auxiliar o engenheiro na rotina administrativa da obra, controle de projetos, medições, replanejamento e acompanhamento das atividades técnicas na execução dos serviços, acompanhar o cronograma físico e financeiro da obra, entre outros.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Vaga (22).pdf</t>
         </is>
@@ -1358,17 +1438,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fortaleza, CE</t>
+          <t>Fortaleza - CE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ensino superior completo ou em conclusão em Tecnologia da Informação, experiência como desenvolvedor Backend, Node.js + Typescript, bancos de dados SQL e NoSQL, ORM Prisma e TypeORM</t>
+          <t>Ensino superior completo ou em conclusão em Tecnologia da Informação, Experiência como desenvolvedor Backend, Node.js + Typescript, Familiaridade com bancos de dados SQL e NoSQL, Familiaridade com ORM Prisma e TypeORM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1378,25 +1458,30 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pessoa jurídica</t>
+          <t>Tecnologia da Informação</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tecnologia da Informação</t>
+          <t>Prazo 16/08/2024</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Desenvolvimento pleno WEB e Mobile, construir ferramentas para evolução nas plataformas, fortalecer ecossistema de produtos, desenvolver ferramentas inteligentes para análise de dados, sustentar funcionalidades no desenvolvimento de APIs, provisionar instâncias de bancos de dados.</t>
+          <t>Desenvolvimento pleno WEB e Mobile</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
+        <is>
+          <t>Desenvolver ferramentas para evolução contínua das plataformas da empresa, desenvolver ferramentas inteligentes para análise de dados, sustentar e trabalhar em novas funcionalidades no escopo de desenvolvimento de APIs, sustentar e provisionar instâncias de bancos de dados.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Vaga (23).pdf</t>
         </is>
@@ -1420,7 +1505,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Superior cursando engenharia civil a partir do 4º semestre, conhecimento em autocad e vivência ou interesse na área de sala técnica</t>
+          <t>Engenharia Civil a partir do 4º semestre, conhecimento em Autocad</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1430,30 +1515,35 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Presencial</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Estudantes de engenharia civil</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Engenharia civil</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Levantamento de quantitativos, apoio no desenvolvimento de as builts e execução de serviços em campo.</t>
+          <t>Levantamento de quantitativos, desenvolvimento de as builts, execução de serviços em campo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
+        <is>
+          <t>Apoio no desenvolvimento de as builts, execução de serviços em campo</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Vaga (24).pdf</t>
         </is>
@@ -1477,7 +1567,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior em Redes, Ciências da Computação e áreas afins</t>
+          <t>Cursando Ensino Superior em Redes, Ciências da Computação ou áreas afins</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1497,20 +1587,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Estudantes de Ensino Superior</t>
+          <t>Redes, Ciências da Computação ou áreas afins</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tecnologia da Informação</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Documentar procedimentos de TI, Auxiliar no atendimento e suporte ao usuário, Auxiliar em configurações corretivas e preventivas de software e hardware, Auxiliar nos planejamentos de testes, implantações de documentações e manutenções de programas de computadores, Auxiliar nas atividades e apoio na área de infraestrutura e sistema quando necessário.</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
+        <is>
+          <t>Documentar procedimento de TI, Auxiliar no atendimento e suporte ao usuário, Auxiliar em configurações corretivas e preventivas de software e hardware, Auxiliar nos planejamentos de testes, implantações de documentações e manutenções de programas de computadores, Auxiliar nas atividades e apoio na área de infraestrutura e sistema quando necessário.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Vaga (25).pdf</t>
         </is>
@@ -1534,7 +1629,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Experiência em obras verticais, familiaridade com pacotes de Software de gestão de obras</t>
+          <t>Experiência em obras verticais com estrutura em parede de concreto, Familiaridade com pacotes de Software de gestão de obras e edificações</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1549,25 +1644,30 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>Não especificado no texto</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>Construção Civil</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Supervisionar e coordenar atividades da obra, garantir prazos, gerenciar recursos, assegurar qualidade e segurança, manter comunicação com equipe e clientes, resolver problemas, cumprir normas técnicas, elaborar relatórios, garantir cumprimento do orçamento.</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
+        <is>
+          <t>Supervisionar e coordenar as atividades da obra, Garantir o prazo dos cumprimentos estabelecidos, Gerenciar recursos humanos e materiais, Acompanhar o andamento da construção, Assegurar a qualidade e segurança da obra, Manter a comunicação com equipe e clientes, Resolver problemas e imprevistos que surjam durante a obra, Cumprir normas e regulamentos técnicos, Elaborar relatórios e documentação técnica, Garantir o cumprimento do orçamento estabelecido.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Vaga (26).pdf</t>
         </is>
@@ -1611,20 +1711,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>Não mencionados</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>Educação, Enfermagem</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Auxiliar no planejamento e execução de atividades de monitoria, acompanhar e avaliar desempenho dos alunos, elaborar relatórios, dar suporte aos professores, participar de reuniões e projetos, realizar apresentações e treinamentos, contribuir para melhoria dos processos educacionais.</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Vaga (27).pdf</t>
         </is>
@@ -1648,17 +1753,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ensino Superior em Gestão Comercial, Qualidade, Administração, Marketing ou áreas afins, conhecimento básico em pacote Office e Adobe Photoshop, conhecimento básico em equipamentos fotográficos</t>
+          <t>Cursando Ensino Superior em Gestão Comercial, Qualidade, Administração, Marketing ou áreas afins. Conhecimento básico no pacote Office e Adobe Photoshop, conhecimento básico em equipamentos fotográficos.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1668,20 +1773,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Estudantes de Ensino Superior</t>
+          <t>Ensino Superior em Gestão Comercial, Qualidade, Administração, Marketing ou áreas afins</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Imagem, Edição de Imagens</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Editar imagens dos produtos, apoiar no controle do backlog de imagens, manter fidelidade das características dos produtos editados, realizar conferências e revisar fluxo de imagens, editar imagens relacionadas a questões corporativas.</t>
+          <t>Edição de imagens, controle de backlog de imagens, conferências e revisão de fluxo de imagens</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
+        <is>
+          <t>Editar imagens dos produtos, apoiar no controle do backlog de imagens, manter fidelidade das características dos produtos editados, realizar conferências e revisar fluxo de imagens, editar imagens corporativas.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Vaga (28).pdf</t>
         </is>
@@ -1705,7 +1815,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cursando Pedagogia, História, Geografia, Artes ou áreas correlatas a partir do 2º semestre; Vivência com recreação infantil será um diferencial</t>
+          <t>Cursando Pedagogia, História, Geografia, Artes ou áreas correlatas a partir do 2º semestre</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1720,25 +1830,30 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Vale Transporte, Seguro de Vida, Convênio com Sesc, Parcerias com rede de descontos</t>
+          <t>Vale Transporte, Seguro de Vida, Convênio com Sesc, Parceria com rede de descontos</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Pedagogia, História, Geografia, Artes</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>A partir do 2º semestre</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>Educação Digital</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Assessorar professores e alunos com o uso de Tecnologias; Atuar nos intervalos com atividades lúdicas e jogos com os alunos; Auxiliar no uso de novos recursos tecnológicos, jogos e aplicativos.</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
+        <is>
+          <t>Assessorar professores e alunos com o uso de Tecnologias, Atuar nos intervalos com atividades lúdicas e jogos, Auxiliar no uso de novos recursos tecnológicos, jogos e aplicativos.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Vaga (29).pdf</t>
         </is>
@@ -1762,7 +1877,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior em Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas relacionadas; Conhecimento básico em linguagens de programação; Familiaridade com conceitos de arquitetura de software; Boa capacidade de resolução de problemas; Habilidades de comunicação e organização.</t>
+          <t>Cursando Ensino Superior em Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas relacionadas. Conhecimento em linguagens de programação, arquitetura de software e design patterns. Boa capacidade de resolução de problemas e habilidades de comunicação.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1777,25 +1892,30 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Trabalho remoto; Vale refeição e alimentação; Plano de saúde coparticipativo; Plano odontológico coparticipativo; Gympass; Psicologia Viva; Saúde Financeira; Parceria com escolas de idiomas; Descontos em cursos de instituições renomadas.</t>
+          <t>Trabalho remoto, refeição e alimentação em um só cartão, plano de saúde, plano odontológico, Gympass, Psicologia Viva, saúde financeira, parceria com escolas de idiomas, descontos em cursos, entre outros.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Todos</t>
+          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas relacionadas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>Arquitetura de Software</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Auxiliar na análise e definição de arquiteturas de software; Colaborar com a equipe de desenvolvimento; Contribuir para a documentação de arquitetura e padrões de codificação; Participar de revisões de código; Apoiar na resolução de problemas e otimização de performance; Manter-se atualizado com as melhores práticas e tendências em arquitetura de software.</t>
-        </is>
-      </c>
       <c r="K24" t="inlineStr">
+        <is>
+          <t>Auxiliar na análise e definição de arquiteturas de software, colaborar com a equipe de desenvolvimento, contribuir para a documentação de arquitetura, participar de revisões de código, apoiar na resolução de problemas, manter-se atualizado com as melhores práticas em arquitetura de software.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Vaga (3).pdf</t>
         </is>
@@ -1809,7 +1929,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Estágio de Enfermagem</t>
+          <t>Estágio de enfermagem</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1819,40 +1939,45 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Matriculado em Curso de Enfermagem, Documentação Acadêmica, Idade e Disponibilidade, Características Pessoais</t>
+          <t>Estar matriculado em curso de Enfermagem</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>não especificado</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Estudantes de graduação em Enfermagem</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>Medicina Diagnóstica</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Apoio ao Paciente, Administração de Medicamentos, Monitoramento dos Pacientes, Participação em Treinamentos</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
+        <is>
+          <t>Apoio ao paciente, colaboração na realização de exames, administração de medicamentos, aplicação de protocolos de higiene, participação em treinamentos, integração de novas técnicas.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Vaga (30).pdf</t>
         </is>
@@ -1876,7 +2001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cursando técnico em Eletrônica ou Instrumentação, Excel e Pacote Office intermediário, Conhecimento em Auto-Cad será um diferencial</t>
+          <t>Curso técnico em Eletrônica ou Instrumentação, Excel e Pacote Office intermediário, Conhecimento em Auto-Cad será um diferencial</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1896,20 +2021,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Estudantes de técnico em Eletrônica ou Instrumentação</t>
+          <t>Técnico em Eletrônica ou Instrumentação</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>Aviação Executiva</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Identificação de defeitos em sistemas elétricos, instalação de painéis, montagem de sistemas elétricos, diagnóstico de condições de equipamentos aeronáuticos.</t>
-        </is>
-      </c>
       <c r="K26" t="inlineStr">
+        <is>
+          <t>Identificação de defeitos em sistemas elétricos, instalação de painéis, montagem e reparo de sistemas elétricos, diagnóstico de condições de instrumentos em aeronaves.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Vaga (31).pdf</t>
         </is>
@@ -1938,35 +2068,40 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Vale refeição/alimentação, seguro de vida, vale transporte/auxílio combustível, programa de saúde mental e emocional, programa de educação</t>
+          <t>Vale refeição/alimentação, seguro de vida, vale transporte/auxílio combustível, programa de saúde mental, educação</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Estudantes da área de TI</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>Tecnologia da Informação</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Apoio no gerenciamento de incidentes, análise de informações e indicadores, suporte ao líder do processo.</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
+        <is>
+          <t>Apoio em gerenciamento de incidentes, análise de informações, análise de indicadores, atividades designadas pelo líder do processo.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Vaga (32).pdf</t>
         </is>
@@ -1990,40 +2125,45 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ensino Superior cursando, residir em Itabuna, disponibilidade de horário, conhecimento em Excel e Pacote Office</t>
+          <t>Ensino Superior cursando, conhecimento em Excel, residir em Itabuna</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>8h às 15h, de segunda a sexta</t>
+          <t>8h às 15h, com 1h de almoço, de segunda a sexta</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Vale Transporte, Vale Refeição, Allya, TotalPass, Universidade Corporativa</t>
+          <t>Vale Transporte, Vale refeição, Allya, TotalPass, Universidade Corporativa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Estudantes de Administração, Ciências Contábeis, Engenharia de Produção, Gestão Financeira ou áreas afins</t>
+          <t>Administração, Ciências Contábeis, Engenharia de Produção, Gestão Financeira ou áreas afins</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>A partir do 2º período, com pelo menos 2 anos disponíveis para estagiar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>Administrativo/Financeiro</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Cobranças de BIN, Acompanhamento do ZAPI via WhatsApp, Baixas de extratos bancários e segunda via de boletos, Cadastro de clientes, Controle de recolhimentos de BIN, Guardião do Sistema de Gestão.</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
+        <is>
+          <t>Cobranças de BIN, Acompanhamento do ZAPI, Baixas de extratos bancários, Realização de cadastro de clientes, Acompanhar e controlar o recolhimentos de BIN, Guardião do Sistema de Gestão.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Vaga (33).pdf</t>
         </is>
@@ -2047,7 +2187,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cursando Administração, Ciências Contábeis, Recursos Humanos, Psicologia, Gestão Comercial, Ciências Econômicas ou MBA's relacionados.</t>
+          <t>Cursando Administração, Ciências Contábeis, Recursos Humanos, Psicologia, Gestão Comercial, Ciências Econômicas ou MBA relacionados</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2067,20 +2207,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração, Ciências Contábeis, Recursos Humanos, Psicologia, Gestão Comercial, Ciências Econômicas ou MBA relacionados</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Gestão de Pessoas, Atendimento ao público</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Realizar atividades operacionais na área de Gestão de Pessoas na Sede Administrativa e atendimento aos associados nas agências.</t>
+          <t>Gestão de Pessoas, Atendimento ao público, Administração, Recepção de agência, Atendimento aos associados</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
+        <is>
+          <t>Atividades operacionais, Lançamentos de folha de pagamento, Suporte na administração de benefícios, Gestão do cartão ponto, Lançamento e controle de afastamentos, Atendimento ágil e eficiente aos associados, Auxílio administrativo, Criação de conteúdo das agências.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Vaga (34).pdf</t>
         </is>
@@ -2104,12 +2249,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ensino superior cursando Farmácia, Inglês Intermediário, Pacote Office, Conhecimentos em Garantia de Qualidade, Validação de processos, embalagem, limpeza e estudos de Holding time em Indústria Farmacêutica</t>
+          <t>Ensino superior cursando Farmácia com formação prevista em dez/2025 e dez/2026; Inglês Intermediário; Pacote Office; Conhecimentos em Garantia de Qualidade, Validação de processos, embalagem, limpeza e estudos de Holding time em Indústria Farmacêutica</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2119,25 +2264,30 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Assistência médica e odontológica, Medicamentos sem custo, Programa de Saúde Mental, Vale-refeição, Vale-alimentação, Vale-transporte, Estacionamento, Short Friday, Brinde de Natal</t>
+          <t>Assistência médica e odontológica, Medicamentos sem custo, Programas de bem-estar, Desenvolvimento profissional, Restaurante interno ou Vale-refeição, Vale-alimentação, Vale-transporte, Estacionamento ou Fretado, Short Friday, Brinde de Natal</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Estudantes de Farmácia com formação prevista entre dez/2025 e dez/2026</t>
+          <t>Farmácia</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Garantia da Qualidade, Validação</t>
+          <t>dez/2025 e dez/2026</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Elaborar documentos, acompanhar lotes produtivos, executar atividades administrativas do setor</t>
+          <t>Garantia da Qualidade, Validação, Indústria Farmacêutica</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
+        <is>
+          <t>Elaborar documentos, acompanhar lotes produtivos, executar atividades administrativas.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Vaga (35).pdf</t>
         </is>
@@ -2151,7 +2301,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Monitora de Estágio em Fisioterapia</t>
+          <t>Estágio em Fisioterapia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2181,20 +2331,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Estudantes de Fisioterapia</t>
+          <t>Fisioterapia</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>Fisioterapia</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Elaborar relatórios de atividades de estágio, Realizar monitoria de estágio, Realizar avaliação fisioterapêutica, Desenvolver atividades de ensino a distância (EAD), Demonstrar conhecimento em anatomia humana, Trabalhar em equipe com outros monitores e professores, Organizar e planejar atividades de estágio, Ser flexível e se adaptar a diferentes situações, Demonstrar proatividade e iniciativa em suas atividades</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Vaga (36).pdf</t>
         </is>
@@ -2208,7 +2363,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Monitor de Estágio em Enfermagem</t>
+          <t>Monitor(a) de Estágio em Enfermagem</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2218,40 +2373,45 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Graduação em enfermagem, Experiência prévia em estágio supervisionado</t>
+          <t>Graduação em enfermagem, experiência prévia em estágio supervisionado</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>não especificada</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>não especificada</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>não especificados</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>não especificado</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>Enfermagem</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Monitorar e acompanhar estagiários, orientar sobre normas, capacitar em primeiros socorros, comunicar-se com equipe, lidar de forma empática, trabalhar em equipe, organizar e planejar atividades, ser flexível e adaptável.</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
+        <is>
+          <t>Monitorar e acompanhar estagiários, orientar sobre normas de estágio, capacitar em primeiros socorros, comunicação clara, trabalho em equipe, organização das atividades de monitoria.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Vaga (37).pdf</t>
         </is>
@@ -2280,35 +2440,40 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Saúde, Laboratório</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Coleta de amostras, análises clínicas, interpretação de resultados, biossegurança, comunicação com pacientes.</t>
+          <t>Análises clínicas</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
+        <is>
+          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, comunicação com pacientes e equipe multidisciplinar.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Vaga (38).pdf</t>
         </is>
@@ -2322,7 +2487,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Estágio Técnico em Manutenção</t>
+          <t>Estágio Técnico Manutenção</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2332,7 +2497,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18 anos, estudante de Mecânica de Aeronaves, disponibilidade para trabalhar em Campinas ou Pampulha, Ensino Médio completo</t>
+          <t>18 anos, curso de Mecânica de Aeronaves, disponibilidade para trabalhar no Hangar da Azul em Campinas ou Pampulha, Ensino Médio completo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2347,25 +2512,30 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Programa de Concessão de Passagens Aéreas, Assistência médica e odontológica, Telemedicina, Previdência privada, Seguro de vida gratuito, Clube de descontos, Vale transporte, Auxílio creche, entre outros</t>
+          <t>Programa de Concessão de Passagens Aéreas, Assistência médica e odontológica, Telemedicina, Previdência privada, Seguro de vida gratuito, Clube de descontos da Azul, Vale transporte, Auxílio creche, etc.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Estudantes de Mecânica de Aeronaves</t>
+          <t>Mecânica de Aeronaves</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>não especificado</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>Manutenção de Aeronaves</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Apoiar a rotina de atendimento à aeronave, acompanhar atividades de manutenção preventiva e corretiva, aprender normas e procedimentos, realizar projetos e rotação entre áreas técnicas.</t>
-        </is>
-      </c>
       <c r="K34" t="inlineStr">
+        <is>
+          <t>Apoiar a rotina de atendimento à aeronave, acompanhar atividades de manutenção preventiva e corretiva, aprender sobre normas e procedimentos internos, realizar projetos e rotação entre áreas técnicas do Hangar.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Vaga (39).pdf</t>
         </is>
@@ -2409,20 +2579,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Estudantes de 2º grau técnico ou faculdade</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>Desenvolvimento de sistemas</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Programar, manter aplicações, participar do ciclo de desenvolvimento de software, integrar interfaces de usuário, escrever código limpo, contribuir para solução de problemas e otimização de desempenho.</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
+        <is>
+          <t>Criação e manutenção de aplicações, participação no ciclo completo de desenvolvimento de software, integração de interfaces, escrita de código limpo, contribuição para solução de problemas e otimização de desempenho.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Vaga (4).pdf</t>
         </is>
@@ -2446,7 +2621,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cursando Engenharias, Sistemas de Informação ou áreas correlatas, conhecimento em linguagens de programação, disponibilidade mínima de 20 horas semanais</t>
+          <t>Cursando Engenharias, Sistemas de Informação ou áreas correlatas, noções de teste de software, conhecimento em linguagens de programação</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2456,7 +2631,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>20 horas semanais (mínimo)</t>
+          <t>Disponibilidade mínima de 20 horas semanais</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2466,20 +2641,25 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Alunos com interesse em estágio como Testador de Software</t>
+          <t>Engenharias, Sistemas de Informação ou áreas correlatas</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>Teste de Software</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Execução de testes de software, criação de planos de teste, suporte ao time de desenvolvimento, criação de documentações, automatização de testes.</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>Vaga (40).pdf</t>
         </is>
@@ -2503,7 +2683,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Conhecimento em acústica e vibrações, interesse em experimentação e projetos de desenvolvimento de produto</t>
+          <t>Acústica, vibrações, experimentação, desenvolvimento de produto</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2523,20 +2703,25 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pessoas interessadas na área de acústica e vibrações</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Acústica, Vibrações, Desenvolvimento de Produto</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Análise do ruído de compressores, análise do ruído de sistemas, suportes gerais no desenvolvimento de filtros acústicos e realização de testes.</t>
+          <t>Acústica, vibração, desenvolvimento de produto</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
+        <is>
+          <t>Análise do ruído de compressores, análise do ruído de sistemas, suportes gerais.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Vaga (41).pdf</t>
         </is>
@@ -2550,7 +2735,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Estágio Biomédico</t>
+          <t>Estágio em Biomedicina</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2580,20 +2765,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>não especificado</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>Laboratório de Análises Clínicas</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, biossegurança, comunicação com pacientes e equipe multidisciplinar.</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
+        <is>
+          <t>Coleta de amostras, análises clínicas, interpretação de resultados, uso de equipamentos laboratoriais, biossegurança, comunicação com pacientes e equipe, entre outros.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Vaga (42).pdf</t>
         </is>
@@ -2617,12 +2807,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Curso superior em Engenharia, disponibilidade para 2 anos de estágio, conhecimentos em pacote Office, disponibilidade para 30 horas semanais, conhecimentos básicos em AutoCad e MS Project, disponibilidade para início a partir de Jun. 2024</t>
+          <t>Curso superior em Engenharia, disponibilidade para 2 anos de estágio, conhecimentos em pacote Office, AutoCad e MS Project, disponibilidade para 30 horas semanais, início a partir de Jun. 2024</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2632,25 +2822,30 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Assistência médica, assistência odontológica, vale alimentação, restaurante interno, vale transporte/fretado/estacionamento sem custo, farmácia/dispensário com medicamentos gratuitos, seguro de vida, salão de beleza, academia, horário flexível</t>
+          <t>Assistência médica, odontológica, vale alimentação, restaurante interno, vale transporte/fretado/estacionamento, farmácia/dispensário, seguro de vida, salão de beleza, academia, horário flexível</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>Manutenção predial, manutenção industrial, engenharia, projetos</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Elaboração de relatórios, apresentações de projetos multidisciplinares, apoio na organização e comparação de propostas orçamentárias, suporte no controle orçamentário, acompanhamento de evolução de projetos, emissão e acompanhamento de requisição de compras, auxílio na implantação de novas soluções multidisciplinares, contratações e acompanhamento de obras, identificar e implementar melhorias de processo, gestão de ativos, inventário e movimentações de equipamentos.</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
+        <is>
+          <t>Elaboração de relatórios, apresentações de projetos multidisciplinares, apoio na organização de propostas orçamentárias, suporte no controle orçamentário, acompanhamento de evolução de projetos, emissão e acompanhamento de requisição de compras, auxílio na implantação de novas soluções, identificação e implementação de melhorias de processo, gestão de ativos.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Vaga (43).pdf</t>
         </is>
@@ -2669,12 +2864,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Campo Grande - MS</t>
+          <t>Campo Grande/MS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ensino superior em andamento, disponibilidade para estágio de 6 horas diárias, residir em Campo Grande/MS</t>
+          <t>Ensino superior em andamento, 2º a 4º semestre, disponibilidade 6 horas diárias, residir em Campo Grande/MS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2689,25 +2884,30 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Vale Alimentação (R$ 606,10), Gympass</t>
+          <t>Vale Alimentação, Gympass</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Estudantes do 2º ao 4º semestre de Administração, Ciências Contábeis, Economia e áreas correlatas</t>
+          <t>Administração, Ciências Contábeis, Economia ou áreas correlatas</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Administrativa, Negócios</t>
+          <t>2º a 4º semestre</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>Administração, Ciências Contábeis, Economia</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>Atendimento e orientação aos associados, organização de documentos, apoio às áreas de negócio e administrativa, construção de ações para melhorar a experiência dos associados.</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Vaga (44).pdf</t>
         </is>
@@ -2751,20 +2951,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Saúde, Laboratório</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Realizar coleta de amostras, interpretar resultados de exames, manter a biossegurança, trabalhar em equipe</t>
+          <t>Laboratório de análises clínicas, saúde</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
+        <is>
+          <t>Realizar coleta de amostras, análises clínicas, interpretar resultados de exames, entre outros</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Vaga (45).pdf</t>
         </is>
@@ -2798,7 +3003,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>07h30 às 14h30 (1h intervalo)</t>
+          <t>6 horas por dia, das 07h30 às 14h30 (com 1h de intervalo)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2808,20 +3013,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Estudantes de ensino superior</t>
+          <t>Administração, Ciências Contábeis, Economia ou áreas afins</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
+          <t>Não informado</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>Administrativa (Custos)</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Gestão de projetos, participação em grupos de qualidade e inovação, aplicação de conhecimentos na área, suporte ao controle de custos, operação de 5'S, aplicação de políticas de qualidade, segurança e meio ambiente.</t>
-        </is>
-      </c>
       <c r="K42" t="inlineStr">
+        <is>
+          <t>Gestão de projetos, participação em grupos de qualidade e inovação, aplicação de conhecimentos do curso, suporte ao controle de custos, operação de 5'S, aplicação de políticas de qualidade, segurança e meio ambiente.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Vaga (46).pdf</t>
         </is>
@@ -2830,12 +3040,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Estagiário/Estagiaria</t>
+          <t>Estágio em Meio Ambiente</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2845,40 +3055,45 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cursando graduação na área ambiental, boa comunicação, proatividade, senso de dono, relacionamento interpessoal, pacote office, Excel intermediário</t>
+          <t>Cursando graduação na área ambiental, boa comunicação, proatividade, relacionamento interpessoal, pacote office, Excel intermediário</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Área ambiental, engenharia ambiental, biologia, agronomia, geologia, gestão ambiental</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Meio Ambiente</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Apoio em monitoramento de qualidade do ar, apoio em monitoramento contínuo do forno, apoio no gerenciamento de resíduos como gerador e destinador, apoio no Plano de Comunicação Interno, apoio na consolidação de resultados, qualificação ambiental de fornecedores críticos ao meio ambiente, inspeções nas áreas com acompanhamento, organização do ambiente de trabalho, apoio em auditorias.</t>
+          <t>Meio ambiente</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
+        <is>
+          <t>Apoio em monitoramento de qualidade do ar, monitoramento do forno, gerenciamento de resíduos, plano de comunicação interno, consolidação de resultados, qualificação ambiental de fornecedores, inspeções, organização do ambiente de trabalho, apoio em auditorias.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Vaga (47).pdf</t>
         </is>
@@ -2902,40 +3117,45 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Superior completo em Administração, Direito ou áreas correlativas, Inglês intermediário, Conhecimento da legislação brasileira de PLD/CFT, Experiência prévia nos mercados financeiros de câmbio e/ou bancário, Conhecimento da legislação bancária</t>
+          <t>Superior completo em Administração, Direito ou áreas correlativas, Inglês intermediário, Conhecimento da legislação brasileira de PLD/CFT, Experiência prévia em mercados financeiros de câmbio e/ou bancário, Conhecimento da legislação do mercado bancário</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>não mencionada</t>
+          <t>não especificada</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>não mencionada</t>
+          <t>não especificada</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>não mencionados</t>
+          <t>não especificados</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Administração, Direito ou áreas correlativas</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
+          <t>não especificado</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>PLD/Compliance</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Análise e monitoramento de clientes e operações, monitoramento em aderência às políticas internas, acompanhamento das normas do órgão regulador, garantir conformidade com legislações, suporte no atendimento aos colaboradores, suporte a auditorias, realização de treinamentos, monitoramento de situações de risco.</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
+        <is>
+          <t>Análise e monitoramento de clientes e operações, monitoramento em conformidade com as políticas internas e globais, acompanhamento das normas regulatórias, garantir conformidade com legislações vigentes, suporte em assuntos de Compliance, atendimento a auditorias internas e externas, auxílio em treinamentos de Compliance/PLD, monitoramento de situações de risco legal e de imagem.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Vaga (48).pdf</t>
         </is>
@@ -2949,7 +3169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Estágio em Biomedicina</t>
+          <t>Monitor Estágio em Biomedicina</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2959,40 +3179,45 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Graduação em Biomedicina, Experiência em monitoria</t>
+          <t>Graduação em Biomedicina, experiência em monitoria</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>não mencionados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Estudantes de Biomedicina</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Análises Clínicas</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Auxiliar na supervisão e orientação de estagiários, Realizar análises clínicas, Interpretar exames, Coletar amostras, Manusear equipamentos laboratoriais, Elaborar relatórios e apresentações, Participar de atividades de monitoria e metodologias ativas de ensino.</t>
+          <t>Análises clínicas</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
+        <is>
+          <t>Supervisionar e orientar estagiários, realizar análises clínicas, interpretar exames, coletar amostras, manusear equipamentos laboratoriais, elaborar relatórios, participar de atividades de monitoria e metodologias ativas de ensino.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Vaga (49).pdf</t>
         </is>
@@ -3016,7 +3241,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Comunicação interpessoal, interesse em aprender, matrícula ativa em curso superior</t>
+          <t>Comunicação, Interesse em aprender, Matrícula ativa em curso superior</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3031,25 +3256,30 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Vale alimentação, vale refeição, seguro de vida, vale-transporte, plano de saúde, plano odontológico, day off de aniversário, participação nos lucros, entre outros</t>
+          <t>Vale alimentação, Vale refeição, Day off de aniversário, Participação nos lucros, Seguro de vida, Vale-transporte, Clude, Plataforma de Saúde</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Estudantes de tecnologia, administração, publicidade, marketing, engenharias, ou áreas correlatas</t>
+          <t>Tecnologia, Administração, Publicidade, Marketing, Engenharias</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Marketing, estratégia de negócios, tecnologia, dados e analytics</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Participar de reuniões, implementar e gerir tags e plataformas de Digital Analytics, criar bases de dados, planejar métricas, auxiliar na confecção de dashboards e relatórios, desenvolver análises para os clientes.</t>
+          <t>Marketing, Estratégia, Tecnologia, Dados e Analytics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
+        <is>
+          <t>Mensuração de dados, Participação em reuniões, Implementação e gestão de tags, Criação de bases de dados, Planejamento de métricas, Desenvolvimento de análises.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Vaga (5).pdf</t>
         </is>
@@ -3073,40 +3303,45 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ensino superior cursando em administração ou ciências contabeis a partir de 2025, Excel Intermediario, Experiência com rotinas administrativas</t>
+          <t>Ensino superior cursando em administração ou ciências contábeis a partir de 2025, Excel intermediário, experiência com rotinas administrativas desejável</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Segunda a sexta das 09:00 ás 16:00 com 1h de intervalo</t>
+          <t>Segunda a sexta das 09:00 às 16:00 com 1h de intervalo</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Vale Transporte, Vale refeição de 33,00 p/dia</t>
+          <t>Vale Transporte, Vale refeição de R$33,00 por dia</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Estudantes de administração ou ciências contábeis</t>
+          <t>Administração ou Ciências Contábeis</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>A partir de 2025</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>Fiscal</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Apoio em rotinas fiscais como lançamento e conferência de notas fiscais, apuração de retenções, gestão de controles diversos</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
+        <is>
+          <t>Apoio em rotinas fiscais como lançamento e conferência de notas fiscais, apuração de retenções, gestão de controles diversos.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Vaga (50).pdf</t>
         </is>
@@ -3120,22 +3355,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Estágio em Jornalismo na Gerência de Marketing</t>
+          <t>Estágio em Jornalismo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS</t>
+          <t>Porto Alegre - RS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Curso superior em andamento em Jornalismo ou Comunicação Social, conhecimento em Pacote Office e produção de conteúdo para redes sociais</t>
+          <t>Curso superior em andamento em Jornalismo, Comunicação Social ou áreas afins, conhecimento em Pacote Office e produção de conteúdo para redes sociais</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bolsa-auxílio de R$ 1.216,05</t>
+          <t>R$ 1.216,05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3145,25 +3380,30 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Vale Transporte, Auxílio Alimentação/Refeição, Gympass, Espaço que estimula a inovação</t>
+          <t>Vale Transporte, Auxílio Alimentação/Refeição, Gympass (Plano Silver)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Estudantes de Jornalismo ou áreas afins</t>
+          <t>Jornalismo, Comunicação Social ou áreas afins</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Comunicação, Marketing</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Produção de releases, revisão de textos, criação de conteúdo para redes sociais, apoio em eventos, suporte administrativo.</t>
+          <t>Comunicação e Marketing</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
+        <is>
+          <t>Produção de releases, revisão de textos, criação de conteúdo para redes sociais, suporte em eventos, suporte administrativo.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Vaga (51).pdf</t>
         </is>
@@ -3187,40 +3427,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Graduação em andamento, disponibilidade para estagiar durante 02 anos, conhecimento em Ferramentas de Dados e no idioma Inglês</t>
+          <t>Graduação em andamento, disponibilidade para estagiar 2 anos, conhecimento em Ferramentas de Dados e Inglês</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salário a combinar</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
+          <t>A combinar</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração de Empresas, Ciências da Computação, Economia, Sistemas da Informação ou áreas correlatas</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Administração de Empresas, Ciências da Computação, Economia, Sistemas da Informação ou áreas correlatas</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Auxiliar o Gerente de Produtos, organizar atas de reuniões, sugerir melhorias nos processos, conhecer diferentes partes do negócio, foco em dados para análise de KPIs e elaboração de relatórios.</t>
+          <t>Produtos</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
+        <is>
+          <t>Auxiliar o Gerente de Produtos, organizar atas de reuniões, sugerir melhorias nos processos, conhecer diferentes partes do negócio, foco em dados para análise.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Vaga (6).pdf</t>
         </is>
@@ -3259,25 +3500,30 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Vale Refeição/Alimentação, Vale Transporte, Plano de Saúde, Plano Odontológico, Seguro de vida, Gympass, EduPass, Day Off Aniversário, Acolhe (serviço de apoio psicossocial), Saber Online</t>
+          <t>Vale Refeição/Alimentação, Vale Transporte, Plano de Saúde, Plano Odontológico, Seguro de vida, Gympass, EduPass, Day Off Aniversário, Acolhe, Saber Online</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Estudantes da área de tecnologia</t>
+          <t>Área de tecnologia</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>QA, Engenharia, DevOps</t>
+          <t>Dezembro/2025</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Trabalhar em colaboração com desenvolvedores, engenheiros de software, analistas de qualidade e outros profissionais técnicos, participação em projetos significativos que impactam diretamente os produtos digitais da empresa.</t>
+          <t>QA, Engenharia e DevOps</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
+        <is>
+          <t>Trabalhar em colaboração com diversos profissionais técnicos em projetos significativos que impactam os produtos digitais da empresa.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Vaga (7).pdf</t>
         </is>
@@ -3301,7 +3547,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Graduando em Engenharia, Ciências da Computação, Estatística, Administração ou afins; Conhecimento em tratamento de dados; Excel Avançado; Proatividade; Senso de urgência; Capacidade Analítica</t>
+          <t>Graduando de Engenharia, Ciências da Computação, Estatística, Administração ou afins; Conhecimento em tratamento de dados; Excel Avançado; Proatividade; Senso de urgência; Capacidade Analítica</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3311,30 +3557,35 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>não especificada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Programa de desenvolvimento interno; Descontos exclusivos nos empreendimentos Hype</t>
+          <t>Programa de desenvolvimento interno; Descontos únicos e exclusivos nos empreendimentos Hype</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Graduandos em áreas específicas</t>
+          <t>Engenharia, Ciências da Computação, Estatística, Administração ou afins</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Engenharia de dados, Desenvolvimento de software</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Levantamento de requisitos e mapeamento de processos; Aplicação de boas práticas no desenvolvimento de pipelines de dados; Apoio à equipe de engenharia de dados; Realização de estudos e POCs.</t>
+          <t>Desenvolvimento de software, Engenharia de dados</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
+        <is>
+          <t>Realizar levantamento de requisitos e mapeamento de processos para organização dos dados; Aplicar as boas práticas estabelecidas para o desenvolvimento de pipelines de dados; Apoiar a equipe de engenharia de dados na execução das atividades definidas para as sprints; Disposição para lidar com o novo para aprender novos processos e novas ferramentas; Realizar os estudos e POCs.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Vaga (8).pdf</t>
         </is>
@@ -3358,12 +3609,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cursando Administração, Administração de Empresas, Gestão Financeira, Economia ou áreas correlatas, estrutura para home office, conhecimento básico em Pacote Office, residir em Salvador/BA ou Região Metropolitana</t>
+          <t>Ensino Superior cursando em Administração, Administração de Empresas, Gestão Financeira, Economia ou áreas correlatas, estrutura para trabalhar em home office, conhecimento básico em Pacote Office, residir em Salvador/BA ou Região Metropolitana</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Salário R$850,00</t>
+          <t>R$ 850,00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3378,20 +3629,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Estudantes de nível superior</t>
+          <t>Administração, Administração de Empresas, Gestão Financeira, Economia</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Administração, Recursos Humanos, Finanças</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Apoio a processos seletivos, edição de documentos, suporte em cotações, conciliação bancária, coleta de dados para relatórios, apoio em rotinas administrativas.</t>
+          <t>Administrativa, Financeira, Recursos Humanos</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
+        <is>
+          <t>Apoio a processos seletivos, remodelagem de documentos, suporte em cotações, conciliação bancária, coleta de dados históricos, apoio em rotinas de cadastro.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Vaga (9).pdf</t>
         </is>
@@ -3430,25 +3686,30 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Bolsa Estágio Home Office</t>
+          <t>Bolsa Estágio, Home Office</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Estudantes de áreas relacionadas à tecnologia</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
           <t>Desenvolvimento de integrações com API's de parceiros, Manutenção e atualização de scripts, Monitoramento de processos</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Desenvolvimento de integrações com API's de parceiros, Manutenção e atualização de scripts, Monitoramento de processos</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>Vaga.pdf</t>
         </is>
@@ -3487,25 +3748,30 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 3000,00 (contrato de estágio) + R$ 900,00 em um cartão de benefícios flexíveis</t>
+          <t>R$ 900,00 em um cartão de benefícios flexíveis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Jovens brilhantes e ambiciosos</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Adquirir conhecimento e proficiência em tecnologias modernas, desenvolver produtos de software, influenciar o desenvolvimento de produto.</t>
+          <t>Tecnologia, Desenvolvimento de Produto</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
+        <is>
+          <t>Trabalho com stacks de tecnologia, desenvolvimento de produtos de software, influenciar o desenvolvimento de produto.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>vaga1.txt</t>
         </is>
@@ -3529,7 +3795,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Experiência relevante, habilidades técnicas, liderança e colaboração, resolução de problemas, comunicação, mindset de Continuous Delivery, conhecimento em AWS, Python, JavaScript/TypeScript, Java/Kotlin, entre outros.</t>
+          <t>Experiência relevante, habilidades técnicas, liderança, comunicação, mentalidade orientada a resultados, conhecimento em AWS, Python, JavaScript/TypeScript, Java/Kotlin, estruturas de dados, monitoração, Rest, orientação a eventos, testes unitários e de integração, CI / CD, serverless framework, times ágeis, banco de dados, produtos financeiros, testes de carga.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3539,7 +3805,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Flexível e sustentável</t>
+          <t>Jornada de Trabalho com carga horária flexível e sustentável</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3549,20 +3815,25 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pessoas com deficiência, pessoas negras, mulheres, pessoas da comunidade LGBTQIA+, pessoas 50+</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
           <t>Engenharia de Crédito, Produtos Digitais Financeiros</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Desenvolvimento de soluções em nuvem, liderança técnica, participação em definições de novas features, colaboração com equipes multifuncionais, suporte à equipe, evolução técnica dos desenvolvedores.</t>
-        </is>
-      </c>
       <c r="K55" t="inlineStr">
+        <is>
+          <t>Desenvolvimento de soluções em nuvem, liderança técnica, participação no desenho da arquitetura de solução, desenvolvimento de código de alta qualidade, resolução de problemas técnicos, atualização sobre tecnologias em nuvem, participação em ritos da squad, colaboração com equipes multifuncionais, fornecimento de orientação técnica, entre outros.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>vaga10.txt</t>
         </is>
@@ -3586,7 +3857,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Estudante de Engenharia (Especialmente Produção ou Mecânica) cursando a partir do 6º período, Inglês avançado, Conhecimento em Excel, Power BI, Power Point (Google)</t>
+          <t>Estudante de Engenharia (Especialmente Produção ou Mecânica) cursando a partir do 6º período, Inglês avançado, Conhecimento em Excel, Power BI e Power Point</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3606,20 +3877,25 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
+          <t>A partir do 6º período</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>Engenharia de Manufatura Corporativa</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Suporte em estratégias de operações, controles de indicadores de processo, elaboração e compartilhamento de relatórios gerenciais, suporte em programas globais, desenvolvimento de planos estratégicos, elaboração e disseminação de materiais, follow up com plantas.</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr">
+        <is>
+          <t>Suporte nas estratégias de operações, auxílio nos controles globais de indicadores de processo, elaboração de relatórios gerenciais, suporte nos programas globais relacionados a tecnologia de processo, suporte no desenvolvimento de planos estratégicos, elaboração e disseminação de materiais do programa 3Q6S, suporte no follow up com as plantas para fechamento do relatório mensal de produtividade.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Vaga100.pdf</t>
         </is>
@@ -3663,20 +3939,25 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>Educação, Enfermagem</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Auxiliar no planejamento e execução de atividades de monitoria, acompanhar e avaliar o desempenho dos alunos, elaborar relatórios, dar suporte aos professores, participar de reuniões e projetos, realizar apresentações e treinamentos, contribuir para a melhoria dos processos educacionais.</t>
-        </is>
-      </c>
       <c r="K57" t="inlineStr">
+        <is>
+          <t>Auxiliar no planejamento e execução de atividades de monitoria, acompanhar e avaliar desempenho dos alunos, elaborar relatórios, dar suporte aos professores, participar de reuniões e projetos, realizar apresentações e treinamentos, contribuir para melhoria dos processos educacionais.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Vaga101.pdf</t>
         </is>
@@ -3700,40 +3981,45 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cursando ensino superior em Administração, Contabilidade, Economia ou Finanças; SAP desejável; Excel intermediário</t>
+          <t>Cursando Administração, Contabilidade, Economia ou Finanças; SAP desejável; Excel intermediário</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não mencionada</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não mencionada</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Estudantes de ensino superior</t>
+          <t>Administração, Contabilidade, Economia ou Finanças</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Emissão de comprovante de pagamento, Cobranças por e-mail e telefone, Arquivo, Consulta de dados de fornecedores no sistema.</t>
+          <t>Departamento do Contas a Pagar</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
+        <is>
+          <t>Emissão de comprovante de pagamento, Cobranças por e-mail e telefone, Arquivo, Consulta de dados gerais de fornecedores no sistema.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Vaga102.pdf</t>
         </is>
@@ -3777,20 +4063,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
           <t>Educação</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Auxiliar no planejamento e execução de atividades relacionadas à monitoria, Realizar acompanhamento e avaliação do desempenho dos alunos, Elaborar relatórios de atividades desenvolvidas, Dar suporte aos professores na utilização de ferramentas tecnológicas em sala de aula, Participar de reuniões pedagógicas e de projetos, Realizar apresentações e treinamentos para alunos e professores, Contribuir para a melhoria contínua dos processos educacionais.</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>Vaga103.pdf</t>
         </is>
@@ -3814,7 +4105,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior em Gestão Comercial, Qualidade, Administração, Marketing ou áreas afins; Conhecimento básico no pacote Office e Adobe Photoshop; Conhecimento básico em equipamentos fotográficos.</t>
+          <t>Cursando Ensino Superior em Gestão Comercial, Qualidade, Administração, Marketing ou áreas afins, conhecimento básico em pacote Office e Adobe Photoshop, conhecimento básico em equipamentos fotográficos</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3829,25 +4120,30 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Vale Alimentação/Refeição, Vale Transporte, Seguro de Vida, Gympass, SESI, Quick Massagem, Ginástica Laboral, Psicologia Viva, Incentivo Educacional, New Value, Desconto nas Marcas, DayOff, Presente de Aniversário, PPR</t>
+          <t>Vale Alimentação/Refeição, Vale Transporte, Seguro de Vida, Gympass, SESI, Quick Massagem, Ginastica Laboral, Psicologia Viva, Incentivo Educacional, New Value, Desconto nas Marcas, DayOff, Presente de Aniversário, PPR</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Ensino Superior</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
           <t>Imagem, Edição de Imagens</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Editar imagens dos produtos, apoiar no controle do backlog de imagens, manter fidelidade das características dos produtos editados, realizar conferências e revisar o fluxo de imagens, editar imagens relacionadas a questões corporativas.</t>
-        </is>
-      </c>
       <c r="K60" t="inlineStr">
+        <is>
+          <t>Editar imagens, apoiar no controle do backlog de imagens, manter fidelidade das características dos produtos editados, realizar conferências e revisar fluxo de imagens.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Vaga104.pdf</t>
         </is>
@@ -3871,7 +4167,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cursando Pedagogia, História, Geografia, Artes ou áreas correlatas a partir do 2º semestre</t>
+          <t>Cursando Pedagogia, História, Geografia, Artes ou áreas correlatas a partir do 2º semestre; vivência com recreação infantil será um diferencial</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3891,20 +4187,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Estudantes</t>
+          <t>Pedagogia, História, Geografia, Artes ou áreas correlatas</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
+          <t>A partir do 2º semestre</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
           <t>Educação Digital</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Assessorar professores e alunos com o uso de Tecnologias, Atuar nos intervalos com atividades lúdicas e jogos, Auxiliar no uso de novos recursos tecnológicos, jogos e aplicativos.</t>
-        </is>
-      </c>
       <c r="K61" t="inlineStr">
+        <is>
+          <t>Assessorar professores e alunos com o uso de Tecnologias; Atuar nos intervalos com atividades lúdicas e jogos com os alunos; Auxiliar no uso de novos recursos tecnológicos, jogos e aplicativos.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Vaga105.pdf</t>
         </is>
@@ -3928,7 +4229,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Estar matriculado em curso de Enfermagem, documentação acadêmica, idade e disponibilidade, características pessoais</t>
+          <t>Estar matriculado em curso de Enfermagem, apresentar comprovante de matrícula e histórico escolar atualizado, idade mínima exigida, disponibilidade de horário compatível</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3948,20 +4249,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Estudantes de graduação em Enfermagem</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
           <t>Medicina Diagnóstica</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Apoio ao paciente, administração de medicamentos, aplicação de protocolos de higiene, participação em treinamentos.</t>
-        </is>
-      </c>
       <c r="K62" t="inlineStr">
+        <is>
+          <t>Apoio ao paciente, organização dos materiais e equipamentos, administração de medicamentos, aplicação de protocolos de higiene, participação em treinamentos.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Vaga106.pdf</t>
         </is>
@@ -3985,7 +4291,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cursando técnico em Eletrônica ou Instrumentação, Excel e Pacote Office intermediário, Conhecimento em Auto-Cad</t>
+          <t>Técnico em Eletrônica ou Instrumentação, Excel, Pacote Office, Conhecimento em Auto-Cad</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4005,20 +4311,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Vaga também para Pessoas com Deficiência (PcD)</t>
+          <t>Técnico em Eletrônica ou Instrumentação</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
           <t>Aviação Executiva</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Identificação de defeitos em sistemas elétricos, instalação de painéis e equipamentos, reforma de sistemas elétricos, diagnóstico de condições dos equipamentos da aeronave.</t>
-        </is>
-      </c>
       <c r="K63" t="inlineStr">
+        <is>
+          <t>Identificação de defeitos em sistemas elétricos, instalação de painéis, montagem e reparo de sistemas elétricos, diagnóstico de condições de instrumentos e equipamentos em aeronaves.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Vaga107.pdf</t>
         </is>
@@ -4027,7 +4338,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nexa</t>
+          <t>NEXA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4042,40 +4353,45 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cursando técnico ou superior em TI, inglês intermediário, conhecimento em Excel e Query SQL</t>
+          <t>Cursando técnico ou superior em TI, Inglês intermediário, Conhecimento intermediário em Excel, Conhecimento básico em Query SQL</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Vale refeição e/ou alimentação, seguro de vida, vale transporte ou auxílio combustível, Galena para funcionários e dependentes</t>
+          <t>Vale refeição e/ou alimentação, Seguro de Vida, Vale transporte ou Auxílio combustível, Galena para os funcionários e dependentes</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Estudantes da área de TI</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
           <t>Tecnologia da Informação</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Apoiar no gerenciamento de incidentes, análise de informações, indicadores e atividades designadas pelo líder do processo.</t>
-        </is>
-      </c>
       <c r="K64" t="inlineStr">
+        <is>
+          <t>Apoio no Gerenciamento de Incidentes, Levantamento e análise de informações, Análise de indicadores do Processo, Apoio ao Líder do Processo.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Vaga108.pdf</t>
         </is>
@@ -4119,20 +4435,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Estagiários cursando Administração, Ciências Contábeis, Engenharia de Produção, Gestão Financeira ou áreas afins</t>
+          <t>Administração, Ciências Contábeis, Engenharia de Produção, Gestão Financeira ou áreas afins</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Administrativo/Financeiro</t>
+          <t>A partir do 2º período, com pelo menos 2 anos disponíveis para estagiar</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cobranças de BIN, Acompanhamento do ZAPI, Baixas de extratos bancários, Realização de cadastro de clientes, Acompanhar o recolhimentos de BIN, Guardião do Sistema de Gestão.</t>
+          <t>Administração, Finanças</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
+        <is>
+          <t>Cobranças de BIN, Acompanhamento do ZAPI, Baixas de extratos bancários, Cadastro de clientes, Controle de recolhimentos de BIN, Guardião do Sistema de Gestão.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Vaga109.pdf</t>
         </is>
@@ -4156,7 +4477,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Comunicação, matrícula ativa em curso superior, conhecimentos em Analytics, Data Visualization, HTML, Inglês</t>
+          <t>Comunicação, Interesse em aprender, Curso superior em tecnologia, administração, publicidade, marketing, engenharias ou áreas correlatas</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4171,25 +4492,30 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Vale alimentação e refeição, auxílio Home Office, plano de saúde, plano odontológico, day off de aniversário, licença-maternidade e paternidade estendida, PLR, seguro de vida, auxílio creche, bônus por indicação, vale-transporte, Clude e Total Pass</t>
+          <t>Vale alimentação, vale refeição, seguro de vida, vale transporte, day off de aniversário, participação nos lucros, Clude | Plataforma de Saúde, Total Pass</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Estudantes de tecnologia, administração, publicidade, marketing, engenharias ou áreas correlatas</t>
+          <t>Tecnologia, administração, publicidade, marketing, engenharias ou áreas correlatas</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Participar de reuniões, implementar e gerir tags e plataformas de Digital Analytics, criar e manter bases de dados, planejar métricas, auxiliar na confecção de dashboards e relatórios, desenvolver análises descritivas e diagnósticas.</t>
+          <t>Data &amp; Analytics, Marketing Digital</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
+        <is>
+          <t>Participar de reuniões com clientes, implementação e gestão de tags e plataformas de Digital Analytics, criação e manutenção de bases de dados, planejamento e gerenciamento de métricas, desenvolvimento de análises descritivas e diagnósticas.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Vaga11.pdf</t>
         </is>
@@ -4213,7 +4539,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cursando Administração, Ciências Contábeis, Recursos Humanos, Psicologia, Gestão Comercial, Ciências Econômicas ou afins; conhecimento do pacote Office; identificação com área operacional</t>
+          <t>Cursando Administração, Ciências Contábeis, Recursos Humanos, Psicologia, Gestão Comercial, Ciências Econômicas ou áreas relacionadas</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4228,25 +4554,30 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Vale Alimentação, Seguro de Vida, Plano de saúde, Auxílio Desenvolvimento Pessoal, Folga de aniversário, Fundo de assistência a situações emergenciais, Uniforme, entre outros.</t>
+          <t>Vale Alimentação, Seguro de Vida, Plano de Saúde, GYMPASS/Wellhub, Telemedicina, entre outros</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração, Ciências Contábeis, Recursos Humanos, Psicologia, Gestão Comercial, Ciências Econômicas</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Gestão de Pessoas, Atendimento ao público, Administração</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Atividades operacionais, apoio administrativo, atendimento aos associados, criação de conteúdo para mídias sociais, participação em projetos voluntários.</t>
+          <t>Gestão de Pessoas, Atendimento ao Público, Administração, Recepção</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
+        <is>
+          <t>Atividades operacionais, suporte na administração de benefícios, gestão do cartão ponto, atendimento aos associados, apoio no autoatendimento, criação de conteúdo nas mídias sociais.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Vaga110.pdf</t>
         </is>
@@ -4270,7 +4601,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ensino superior cursando Farmácia, Inglês Intermediário, Conhecimentos em Garantia de Qualidade, Validação de processos, entre outros.</t>
+          <t>Ensino superior cursando Farmácia, Formação prevista em dez/2025 e dez/2026, Inglês Intermediário, Pacote Office, Conhecimentos na área de Garantia de Qualidade, Validação de processos, embalagem, limpeza e estudos de Holding time em Indústria Farmacêutica</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4285,25 +4616,30 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Assistência médica e odontológica, Medicamentos sem custo, Programa de Saúde Mental, entre outros.</t>
+          <t>Assistência médica e odontológica, Medicamentos do Aché e da Biosintética sem custo, Exames preventivos sem coparticipação, Wellhub, Programa de Saúde Mental, Parcerias e convênios educacionais, Restaurante interno ou Vale-refeição, Vale-alimentação, Vale-transporte, Estacionamento ou Fretado, Short Friday, Brinde de Natal</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Estudantes de Farmácia</t>
+          <t>Farmácia</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Garantia de Qualidade, Validação de processos</t>
+          <t>dez/2025 e dez/2026</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Elaborar documentos, acompanhar lotes produtivos, executar atividades administrativas.</t>
+          <t>Garantia da Qualidade, Validação, Processos, Embalagem, Limpeza</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
+        <is>
+          <t>Elaborar documentos, Acompanhar lotes produtivos, Executar atividades administrativas.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Vaga111.pdf</t>
         </is>
@@ -4317,7 +4653,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Estágio em Fisioterapia</t>
+          <t>Monitora de Estágio em Fisioterapia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4327,7 +4663,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Graduação em Fisioterapia, experiência em monitoria de estágio, conhecimento em informática aplicada à saúde, boa comunicação clara e objetiva</t>
+          <t>Graduação em Fisioterapia, Experiência em monitoria de estágio, Conhecimento em informática aplicada à saúde, Boa comunicação clara e objetiva</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4347,20 +4683,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Pessoas com graduação em Fisioterapia</t>
+          <t>Fisioterapia</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
           <t>Fisioterapia</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Elaborar relatórios de atividades de estágio, realizar monitoria de estágio, realizar avaliação fisioterapêutica, desenvolver atividades de ensino a distância (EAD), demonstrar conhecimento em anatomia humana, trabalhar em equipe, organizar e planejar atividades de estágio, ser flexível e proativo.</t>
-        </is>
-      </c>
       <c r="K69" t="inlineStr">
+        <is>
+          <t>Elaborar relatórios de atividades de estágio, Realizar monitoria de estágio, Realizar avaliação fisioterapêutica, Desenvolver atividades de ensino a distância (EAD), Demonstrar conhecimento em anatomia humana, Trabalhar em equipe com outros monitores e professores, Organizar e planejar atividades de estágio, Ser flexível e se adaptar a diferentes situações, Demonstrar proatividade e iniciativa em suas atividades</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Vaga112.pdf</t>
         </is>
@@ -4374,7 +4715,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Monitor de Estágio de Enfermagem</t>
+          <t>Monitora de Estágio em Enfermagem</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4389,35 +4730,40 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>não especificada</t>
+          <t>não mencionada</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>não especificada</t>
+          <t>não mencionada</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>não especificados</t>
+          <t>não mencionados</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
+          <t>não mencionados</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
           <t>Enfermagem</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Monitorar e acompanhar desempenho dos estagiários, orientar sobre normas de estágio, capacitar em primeiros socorros, comunicar-se claramente, agir de forma empática, trabalhar em equipe, organizar e planejar atividades de monitoria, ser flexível e adaptável.</t>
-        </is>
-      </c>
       <c r="K70" t="inlineStr">
+        <is>
+          <t>Monitorar e acompanhar desempenho dos estagiários, orientar sobre normas e procedimentos de estágio, capacitar em primeiros socorros, comunicar-se com equipe de enfermagem, lidar de forma empática, trabalhar em equipe, organizar atividades de monitoria, ser flexível e adaptável.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Vaga113.pdf</t>
         </is>
@@ -4446,35 +4792,40 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Estudantes de Biomedicina</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>Análises clínicas</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, entre outros.</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>Vaga114.pdf</t>
         </is>
@@ -4488,17 +4839,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Estágio Técnico em Manutenção de Aeronaves</t>
+          <t>Estágio Técnico em Manutenção</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Campinas/SP</t>
+          <t>Campinas - SP</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>18 anos, estudante de Mecânica de Aeronaves, disponibilidade para trabalhar no Hangar da Azul em Campinas ou Pampulha, formação completa no Ensino Médio</t>
+          <t>18 anos, Estudante de Mecânica de Aeronaves, Disponibilidade para trabalhar no Hangar da Azul, Ensino Médio completo</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4513,25 +4864,30 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Programa de Concessão de Passagens Aéreas, assistência médica e odontológica, seguro de vida, vale transporte, auxílio creche, entre outros</t>
+          <t>Programa de Concessão de Passagens Aéreas, Assistência médica e odontológica, Telemedicina, Previdência privada, Seguro de vida, Clube de descontos, Vale transporte, Auxílio creche, Vida Class, Empréstimo consignado, Programas e parcerias de Saúde &amp; Bem-Estar, entre outros</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Estudantes de Mecânica de Aeronaves</t>
+          <t>Mecânica de Aeronaves</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
+          <t>não especificado</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
           <t>Manutenção de Aeronaves</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Apoiar a rotina de atendimento à aeronave, acompanhar atividades de manutenção preventiva e corretiva, aprender sobre normas e procedimentos internos, realização de projetos e rotação entre as áreas técnicas do Hangar.</t>
-        </is>
-      </c>
       <c r="K72" t="inlineStr">
+        <is>
+          <t>Apoiar a rotina de atendimento à aeronave, acompanhar as atividades de manutenção preventiva e corretiva, aprender sobre normas e procedimentos internos, realização de projetos e rotação entre áreas técnicas do Hangar.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Vaga115.pdf</t>
         </is>
@@ -4555,40 +4911,45 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cursando Engenharias, Sistemas de Informação ou áreas correlatas; Noções de teste de software; Conhecimento em linguagens de programação; Disponibilidade mínima de 20 horas semanais</t>
+          <t>Cursando Engenharias, Sistemas de Informação ou áreas correlatas, noções de teste de software, conhecimento em linguagens de programação</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>20 horas semanais, com possibilidade de 30h ou 40h/sem</t>
+          <t>Disponibilidade mínima de 20 horas semanais</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Alunos com interesse em estágio</t>
+          <t>Engenharias, Sistemas de Informação ou áreas correlatas</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Testador de Software</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Execução de testes de software, criação de planos de teste, suporte ao time de desenvolvimento, criação de documentações, automatização de testes.</t>
+          <t>Teste de Software</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
+        <is>
+          <t>Execução de testes de software manuais e/ou automatizados, criação de planos de teste, criação de casos de teste manuais ou automatizados, registro de bugs, suporte ao time de desenvolvimento, criação de documentações, automatização de testes.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Vaga116.pdf</t>
         </is>
@@ -4637,15 +4998,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
           <t>Acústica, R&amp;D</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Análise do ruído de compressores, análise do ruído de sistemas, suportes gerais</t>
-        </is>
-      </c>
       <c r="K74" t="inlineStr">
+        <is>
+          <t>Análise do ruído de compressores, análise do ruído de sistemas, suportes gerais.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>Vaga117.pdf</t>
         </is>
@@ -4689,20 +5055,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
+          <t>não especificado</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
           <t>Análises Clínicas</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, biossegurança, comunicação com pacientes e equipe multidisciplinar.</t>
-        </is>
-      </c>
       <c r="K75" t="inlineStr">
+        <is>
+          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, comunicação com pacientes e equipe multidisciplinar.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Vaga118.pdf</t>
         </is>
@@ -4721,7 +5092,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Itapevi</t>
+          <t>Itapevi - SP</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4731,7 +5102,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4741,25 +5112,30 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Assistência médica, assistência odontológica, vale alimentação, restaurante interno, vale transporte/fretado/estacionamento sem custo, farmácia/dispensário com medicamentos gratuitos, seguro de vida, salão de beleza, academia, horário flexível</t>
+          <t>Assistência médica, odontológica, vale alimentação, restaurante interno, vale transporte/fretado/estacionamento sem custo, farmácia/dispensário com medicamentos gratuitos, seguro de vida, salão de beleza, academia, horário flexível</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
           <t>Manutenção predial, manutenção industrial, engenharia, projetos</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Elaboração de relatórios, apresentações de projetos multidisciplinares, apoio na organização e comparação de propostas orçamentárias, suporte no controle orçamentário, acompanhamento de evolução de projetos, emissão e acompanhamento de requisição de compras, auxílio na implantação de novas soluções multidisciplinares, contratações e acompanhamento de obras, identificação e implementação de melhorias de processo, gestão de ativos.</t>
-        </is>
-      </c>
       <c r="K76" t="inlineStr">
+        <is>
+          <t>Elaboração de relatórios, apresentações de projetos multidisciplinares, apoio na organização e comparação de propostas orçamentárias, suporte no controle orçamentário, acompanhamento de evolução de projetos, emissão e acompanhamento de requisição de compras, auxílio na implantação de novas soluções multidisciplinares, identificar e implementar melhorias de processo, gestão de ativos, inventário e movimentações de equipamentos.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Vaga119.pdf</t>
         </is>
@@ -4783,7 +5159,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Estudante de graduação ou tecnólogo a partir do 2° semestre, disponibilidade para jornada de 4h ou 6h diárias, ser curioso, questionador e com vontade de transformar</t>
+          <t>Estudante de graduação a partir do 2° semestre, curioso, questionador</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4798,25 +5174,30 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Não especificado no texto</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Estudantes de graduação ou tecnólogo a partir do 2° semestre</t>
+          <t>Graduação ou tecnólogo</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Diversas áreas, como Tecnologia, Comunicação, Riscos, Jurídico, entre outras</t>
+          <t>A partir do 2° semestre</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Explorar potencial em projetos que transformam o mercado, a sociedade e a vida dos clientes, aprender com a liderança e interagir em projetos importantes para o banco, participar da Academia Santander</t>
+          <t>Diversas áreas do banco</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
+        <is>
+          <t>Participar de projetos importantes para o banco, aprender com a liderança, interagir em projetos importantes.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Vaga12.pdf</t>
         </is>
@@ -4840,7 +5221,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ensino superior em andamento, disponibilidade para estágio de 6 horas diárias, residir em Campo Grande/MS</t>
+          <t>Ensino superior em andamento, 2º a 4º semestre, disponibilidade 6 horas diárias, residir em Campo Grande/MS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4860,20 +5241,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Estudantes de Administração, Ciências Contábeis, Economia e áreas correlatas</t>
+          <t>Administração, Ciências Contábeis, Economia ou áreas correlatas</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Atendimento, orientação, organização de documentos, apoio às áreas de negócio e administrativa</t>
+          <t>2º a 4º semestre</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Atendimento e orientação aos associados, organização de documentos, apoio às áreas de negócio e administrativa, construção de ações para melhor experiência dos associados e usuários.</t>
+          <t>Atendimento, organização de documentos, apoio às áreas de negócio e administrativa</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
+        <is>
+          <t>Atendimento e orientação aos associados, organização de documentos, apoio às áreas de negócio e administrativa, construir ações para melhorar a experiência dos associados.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Vaga120.pdf</t>
         </is>
@@ -4902,35 +5288,40 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Estudantes de Biomedicina</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
           <t>Análises clínicas</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, entre outras.</t>
-        </is>
-      </c>
       <c r="K79" t="inlineStr">
+        <is>
+          <t>Coleta de amostras, análises clínicas, interpretação de resultados, uso de equipamentos laboratoriais, entre outros.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Vaga121.pdf</t>
         </is>
@@ -4944,7 +5335,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Estagiária(o) na área Administrativa (Custos)</t>
+          <t>Estagiária(o) Administrativa (Custos)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4959,35 +5350,40 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>não especificada</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>07h30 às 14h30 (1h intervalo)</t>
+          <t>6 horas por dia, das 07h30 às 14h30 com 1h de intervalo</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>não especificados</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração, Ciências Contábeis, Economia ou áreas afins</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
+          <t>não especificados</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
           <t>Administrativa (Custos)</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Auxiliar na gestão de projetos, participar de grupos de qualidade e inovação, aplicar conhecimentos do curso, participar de treinamentos, atuar no suporte ao controle de custos, realizar operação de 5'S, aplicar políticas de qualidade, segurança e meio ambiente.</t>
-        </is>
-      </c>
       <c r="K80" t="inlineStr">
+        <is>
+          <t>Gestão de projetos, participação em grupos de qualidade e inovação, aplicação de conhecimentos do curso, participação em treinamentos, suporte ao controle de custos, operação de 5'S, aplicação de políticas de qualidade, segurança e meio ambiente.</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Vaga122.pdf</t>
         </is>
@@ -4996,12 +5392,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Estagiário/Estagiaria de Meio Ambiente</t>
+          <t>Estágio em Meio Ambiente</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5011,40 +5407,45 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cursando graduação na área ambiental, boa comunicação, proatividade, relacionamento interpessoal, pacote office, Excel intermediário</t>
+          <t>Cursando graduação na área ambiental, engenharia ambiental, biologia, agronomia, geologia, gestão ambiental, entre outros. Boa comunicação, proatividade, disposto a cumprir demandas, senso de dono, relacionamento interpessoal, pacote office, Excel intermediário.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Graduação na área ambiental, engenharia ambiental, biologia, agronomia, geologia, gestão ambiental, entre outros.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
+          <t>Não mencionado</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
           <t>Meio Ambiente</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Apoio em monitoramento de qualidade do ar, monitoramento contínuo do forno, gerenciamento de resíduos, plano de comunicação interno, consolidação de resultados, qualificação ambiental de fornecedores, inspeções, organização do ambiente de trabalho, apoio em auditorias.</t>
-        </is>
-      </c>
       <c r="K81" t="inlineStr">
+        <is>
+          <t>Apoio em monitoramento de qualidade do ar, monitoramento contínuo do forno, gerenciamento de resíduos como gerador e destinador, plano de comunicação interno, consolidação de resultados, qualificação ambiental de fornecedores, inspeções, organização do ambiente de trabalho, apoio em auditorias.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Vaga123.pdf</t>
         </is>
@@ -5053,7 +5454,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Moneycorp</t>
+          <t>Moneycorp Banco de Câmbio</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5068,40 +5469,45 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Superior completo em Administração, Direito ou áreas correlativas, Inglês intermediário, Conhecimento da legislação brasileira de PLD/CFT, Experiência prévia nos mercados financeiros de câmbio e/ou bancário, Conhecimento da legislação do mercado bancário</t>
+          <t>Superior completo em Administração, Direito ou áreas correlativas, Inglês Intermediário, Conhecimento de legislação brasileira de PLD/CFT, Experiência prévia em mercados financeiros de câmbio e/ou bancário, Conhecimento de legislação do mercado bancário</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>não especificada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>não especificada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>não especificados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Estudantes de Administração, Direito ou áreas correlativas</t>
+          <t>Administração, Direito ou áreas correlativas</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
           <t>PLD/Compliance</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Análise e monitoramento de clientes e operações, monitoramento de políticas internas, acompanhamento de normas regulatórias, garantia de conformidade legal, suporte em assuntos de compliance, suporte a auditorias internas e externas, realização de treinamentos, monitoramento de riscos legais e de imagem.</t>
-        </is>
-      </c>
       <c r="K82" t="inlineStr">
+        <is>
+          <t>Análise e monitoramento de clientes e operações, acompanhamento de normas regulatórias, suporte em assuntos de Compliance, suporte em auditorias, auxílio em treinamentos, monitoramento de riscos legais e de imagem.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Vaga124.pdf</t>
         </is>
@@ -5115,7 +5521,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Estágio em Biomedicina</t>
+          <t>Monitor Estágio em Biomedicina</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5125,7 +5531,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Graduação em Biomedicina, experiência em monitoria</t>
+          <t>Graduação em Biomedicina, Experiência em monitoria</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5140,25 +5546,30 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Estudantes de Biomedicina</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Análises clínicas</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Auxiliar na supervisão de estagiários, realizar análises clínicas, manusear equipamentos laboratoriais, colaborar na elaboração de relatórios e apresentações, participar da organização e execução de atividades de monitoria e metodologias ativas de ensino.</t>
+          <t>Análises clínicas, Laboratório</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
+        <is>
+          <t>Auxiliar na supervisão de estagiários, Realizar análises clínicas, Manusear equipamentos laboratoriais, Elaborar relatórios, Participar de atividades de monitoria e metodologias ativas de ensino.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Vaga125.pdf</t>
         </is>
@@ -5182,7 +5593,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ensino superior cursando em administração ou ciências contábeis a partir de 2025, Excel intermediário, experiência com rotinas administrativas desejável</t>
+          <t>Ensino superior cursando em administração ou ciências contábeis a partir de 2025, Excel Intermediário, Experiência com rotinas administrativas desejável</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5197,25 +5608,30 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Vale transporte, vale refeição de R$33,00 por dia</t>
+          <t>Vale Transporte, Vale Refeição de R$33,00 por dia</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Estudantes de administração ou ciências contábeis</t>
+          <t>Administração ou Ciências Contábeis</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
+          <t>A partir de 2025</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
           <t>Fiscal</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Apoio em rotinas fiscais como lançamento e conferência de notas fiscais, apuração de retenções, gestão de controles diversos.</t>
-        </is>
-      </c>
       <c r="K84" t="inlineStr">
+        <is>
+          <t>Apoio em rotinas fiscais como lançamento e conferência de notas fiscais, apuração de retenções, gestão de controles diversos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Vaga126.pdf</t>
         </is>
@@ -5229,22 +5645,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Estágio em Jornalismo</t>
+          <t>Estágio em Jornalismo na Gerência de Marketing</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Porto Alegre - RS</t>
+          <t>Porto Alegre, RS</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Curso superior em andamento em Jornalismo, Comunicação Social ou áreas afins, conhecimento em Pacote Office e básico de produção de conteúdo para redes sociais</t>
+          <t>Curso superior em andamento em Jornalismo, Comunicação Social ou áreas afins, conhecimento em Pacote Office e produção de conteúdo para redes sociais, disponibilidade para 02 anos de estágio</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Bolsa-auxílio de R$ 1.216,05</t>
+          <t>R$ 1.216,05</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5254,25 +5670,30 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Vale Transporte, Auxílio Alimentação e/ou Refeição, Gympass, Espaço que estimula a inovação</t>
+          <t>Vale Transporte, Auxílio Alimentação/Refeição, Gympass</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Estudantes com disponibilidade para realizar 02 anos de estágio</t>
+          <t>Jornalismo, Comunicação Social ou áreas afins</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
+          <t>Curso em andamento</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
           <t>Comunicação e Marketing</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Auxiliar na produção de releases, revisão de textos, construção de briefings, postagem de notícias, criação de conteúdo para redes sociais, suporte para assessoria de imprensa, cobertura de eventos, redação de textos, suporte administrativo.</t>
-        </is>
-      </c>
       <c r="K85" t="inlineStr">
+        <is>
+          <t>Produção de releases, revisão de textos, criação de conteúdo para redes sociais, suporte em eventos, suporte administrativo.</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Vaga127.pdf</t>
         </is>
@@ -5296,7 +5717,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cursando ensino superior em Ciência da Computação, Engenharia de Software, Sistemas de Informação, Análise e Desenvolvimento de Sistemas ou áreas correlatas, conhecimento em Java, Hibernate/JPA, bancos de dados relacionais ou NoSQL, capacidade de atuar em equipe e boa comunicação</t>
+          <t>Cursando ensino superior em Ciência da Computação, Engenharia de Software, Sistemas de Informação, Análise e Desenvolvimento de Sistemas ou áreas correlatas, formatura prevista a partir de Junho/2026, conhecimento em Orientação a Objetos, Java 8+, Spring Boot, Hibernate/JPA, bancos de dados relacionais ou NoSQL, capacidade de atuar em equipe e boa comunicação</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5306,30 +5727,35 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Auxílio Home Office, Benefício Flexível, Viva Mais e Melhor, Mente Equilibrada Vida Melhor, Crescimento Profissional Contínuo, Celebre seu Dia Especial</t>
+          <t>Auxílio Home Office, Benefício Flexível, TotalPass, Vittude, Crescimento Profissional Contínuo, Celebração de Dia Especial</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Estudantes de áreas correlatas</t>
+          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação, Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Desenvolvimento de aplicações Java, arquitetura de microsserviços, metodologia ágil Scrum</t>
+          <t>A partir de Junho/2026</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Participar no desenvolvimento de aplicações Java, colaborar em fases do ciclo de vida do software, contribuir com a documentação técnica, resolver problemas das aplicações, trabalhar com a metodologia ágil Scrum.</t>
+          <t>Desenvolvimento Backend</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
+        <is>
+          <t>Participar no desenvolvimento de aplicações Java, colaborar com a equipe em diversas fases do ciclo de vida do software, contribuir com a documentação técnica, resolver problemas das aplicações, trabalhar com a metodologia ágil Scrum</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Vaga13.pdf</t>
         </is>
@@ -5353,7 +5779,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Cursando graduação em tecnologia da informação, Conhecimento em Informática (Java, Genexus, DB2, Cloud), Inglês intermediário</t>
+          <t>Cursando graduação em tecnologia da informação, Conhecimento em Informática, Inglês intermediário</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5368,25 +5794,30 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Vale Refeição, Plano de Saúde, Seguro de Vida, Vale Transporte, Estacionamento</t>
+          <t>Vale Refeição, Plano de Saúde, Seguro de Vida, Vale Transporte e estacionamento</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Estudantes de tecnologia da informação</t>
+          <t>Tecnologia da Informação</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Desenvolvimento de software e sistemas</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Organização da entrega de produtos de software, Apoio aos desenvolvedores, Gestão de fornecedores externos</t>
+          <t>Desenvolvimento de software e projetos de sistemas</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
+        <is>
+          <t>Apoio na organização da entrega contínua de produtos de software, Apoio aos times de desenvolvedores, Apoio na gestão de fornecedores externos.</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>Vaga14.pdf</t>
         </is>
@@ -5395,7 +5826,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Radix</t>
+          <t>Radix Engenharia e Software</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5410,16 +5841,45 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cursando graduação em Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas afins, conhecimento básico em Python e JavaScript Disney</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+          <t>Graduação em Ciência da Computação, Engenharia de Software ou áreas afins com previsão de formatura para 2026/1, conhecimento em Python, JavaScript, React.js, Node.js, Express e MongoDB</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>A combinar</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>30h</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Plano de Saúde, Plano Odontológico, Gympass, Auxílio home office, VR ou VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idiomas, Programa de treinamentos internos</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas afins</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2026/1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Desenvolvimento de Software, Tecnologia, Inovação</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
+        <is>
+          <t>Desenvolvimento e manutenção de infraestrutura backend, suporte a bancos de dados MongoDB, desenvolvimento de interfaces de usuário, colaboração com a equipe de desenvolvimento, participação em reuniões e brainstorming, organização da documentação técnica.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Vaga15.pdf</t>
         </is>
@@ -5433,7 +5893,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Programa de Estágio 2024 Atacado</t>
+          <t>Estágio Atacado</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5443,7 +5903,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Estudante de nível superior, disponibilidade de 20, 25 ou 30 horas semanais, inglês intermediário</t>
+          <t>Estudante de nível superior a partir do 2º semestre, disponibilidade de 20, 25 ou 30 horas semanais, inglês intermediário</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5458,25 +5918,30 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Estudantes de nível superior</t>
+          <t>Nível superior (bacharelado, licenciatura ou tecnólogo)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
+          <t>A partir do 2º semestre da graduação ou 1º semestre de tecnólogo</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
           <t>Atacado</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Participar do propósito do Bradesco, atender investidores institucionais, clientes de private banking.</t>
-        </is>
-      </c>
       <c r="K89" t="inlineStr">
+        <is>
+          <t>Participar do propósito de criar oportunidades para realização das pessoas e desenvolvimento sustentável de empresas e sociedade.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Vaga16.pdf</t>
         </is>
@@ -5500,7 +5965,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cursando Administração, Logística, Comércio Exterior, Relações Internacionais; Conhecimento intermediário em Pacote Office e inglês</t>
+          <t>Cursando Administração, Logística, Comércio Exterior, Relações Internacionais; Conhecimento em Pacote Office e inglês intermediário</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5520,20 +5985,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração, Logística, Comércio Exterior, Relações Internacionais</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
           <t>Comércio Exterior</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Acompanhamento do fluxo de exportação, preparação de documentos de embarques, acompanhamento de coletas, responsável pelo fluxo de pagamentos dos fornecedores da logística.</t>
-        </is>
-      </c>
       <c r="K90" t="inlineStr">
+        <is>
+          <t>Acompanhamento do fluxo de exportação, preparação de documentos, acompanhamento de coletas, responsável pelo fluxo de pagamentos dos fornecedores da logística.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>Vaga17.pdf</t>
         </is>
@@ -5557,7 +6027,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Graduação em andamento, habilidades de planejamento de comunicação, experiência em redes sociais</t>
+          <t>Graduação em andamento em cursos correlatos a Publicação, Marketing ou Relações Públicas, habilidades de planejamento de comunicação e execução de redes sociais, experiência com plataformas de mídia social relevantes, bom domínio da língua inglesa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5572,25 +6042,30 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Bolsa estágio, vale alimentação/refeição, Gympass, plano de saúde e odontológico, oportunidades de crescimento, acesso a plataforma de cursos Alura, Sesc</t>
+          <t>Bolsa estágio, Vale alimentação/Refeição, Gympass, Plano de saúde e odontológico, Oportunidades de crescimento, Acesso a plataforma de cursos Alura, Sesc</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Estagiários em Marketing</t>
+          <t>Publicação, Marketing ou Relações Públicas</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Auxiliar na concepção e entrega de estratégias de mídia social, criar calendário de postagens, gerenciar campanhas, gerar relatórios, identificar tendências, otimizar conteúdo, pesquisar ferramentas e técnicas.</t>
+          <t>Marketing, Branding, Mídia Social</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
+        <is>
+          <t>Auxiliar na concepção e entrega de estratégias de mídia social, criar um planejamento e calendário de postagens, publicar e dar manutenção nos conteúdos das redes sociais, auxiliar no desenvolvimento de novas campanhas, gerar relatórios e analisar o desempenho nas plataformas de mídia social, auxiliar na identificação de tendências de consumo, otimizar o conteúdo para incentivar a interação da comunidade, pesquisar e avaliar ferramentas e técnicas para medir a atividade nas redes sociais.</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>Vaga18.pdf</t>
         </is>
@@ -5614,7 +6089,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cursando graduação em Administração, Economia, Engenharia ou áreas relacionadas a partir do 3º semestre, conhecimento em estratégia empresarial, pesquisa de mercado e análise de dados será um diferencial</t>
+          <t>Cursando graduação em Administração, Economia, Engenharia ou áreas relacionadas a partir do 3º semestre. Conhecimento em estratégia empresarial, pesquisa de mercado e análise de dados será um diferencial.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5629,25 +6104,30 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Estudantes de graduação</t>
+          <t>Administração, Economia, Engenharia ou áreas relacionadas</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Consultoria, Estratégia, Inteligência</t>
+          <t>A partir do 3º semestre</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Estratégia Corporativa, Pesquisa de Mercado, Construção de Apresentações, Gestão de Informações do Projeto, Análise de Empresas, Suporte em Projetos de Consultoria</t>
+          <t>Estratégia Corporativa, Pesquisa de Mercado, Construção de Apresentações, Análise de Empresas, Suporte em Projetos de Consultoria</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
+        <is>
+          <t>Auxiliar na formulação e implementação de estratégias corporativas, conduzir pesquisas de mercado, elaborar apresentações executivas, analisar empresas, participar ativamente de projetos de consultoria.</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>Vaga19.pdf</t>
         </is>
@@ -5671,7 +6151,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cursando ensino superior, computador com internet, conhecimento em programação</t>
+          <t>Cursando curso superior, conhecimento em base lógica de programação</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5691,20 +6171,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Estudantes de ensino superior</t>
+          <t>Formação superior (bacharel ou tecnólogo)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
           <t>Automation</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Desenvolver automações, construir telas, programar em Python, manter relacionamento com usuários, desenvolver soluções de alto impacto, garantir funcionamento das soluções.</t>
-        </is>
-      </c>
       <c r="K93" t="inlineStr">
+        <is>
+          <t>Desenvolver automações, construir telas de front-end, programar back-end em Python, criar processos padronizados, lidar com produtos financeiros, prestar suporte, negociar prioridades, fomentar a missão da área, documentar processos, acompanhar mapeamento de processos, desenvolver soluções de alto impacto, garantir estabilidade das soluções.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>vaga2.txt</t>
         </is>
@@ -5728,7 +6213,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ensino Superior em áreas como marketing, habilidades de comunicação, noções de marketing digital</t>
+          <t>Ensino Superior, habilidades de comunicação, Google Sheet, noções de marketing digital</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5738,30 +6223,35 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Plano de saúde, plano odontológico, benefício Flash Flex, PPR, licença maternidade e paternidade, Gympass, seguro de vida, trabalho remoto, ambiente de aprendizagem</t>
+          <t>Plano de saúde, plano odontológico, benefício Flash Flex, PPR, licença maternidade/paternidade, ArquiKids, gympass, seguro de vida</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Estudantes de Ensino Superior</t>
+          <t>Marketing, engenharia, administração, data science ou similares</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
           <t>Marketing, engenharia, administração, data science</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Auxiliar no planejamento e análise de campanhas, contribuir com o aumento da representatividade de CRM, auxiliar na criação de conteúdo das comunicações.</t>
-        </is>
-      </c>
       <c r="K94" t="inlineStr">
+        <is>
+          <t>Planejamento, implementação e análise de réguas de comunicação, criação de conteúdo, desenvolvimento de relatórios, contribuição na geração de demanda e métricas de CRM.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>Vaga20.pdf</t>
         </is>
@@ -5785,7 +6275,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Graduação a partir do 3º período em Ciência da Computação, Engenharias, Sistemas de Informação ou áreas afins</t>
+          <t>Graduandos a partir do 3º período em Ciência da Computação, Engenharias, Sistemas de Informação e afins</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5800,25 +6290,30 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Universitários dos cursos mencionados</t>
+          <t>Ciência da Computação, Engenharias, Sistemas de Informação e afins</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
           <t>Engenharia de Dados</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Modelagem, coleta, limpeza e transformação de dados, suporte na construção e manutenção de pipelines de dados, participação na modelagem de dados para soluções de GenAI, colaboração com equipes multidisciplinares, participação na criação e otimização de bancos de dados, data lakes e data warehouses, apoio na definição e implementação de arquitetura de dados, implementação de políticas de governança de dados, contribuição para a documentação dos processos e fluxos de dados.</t>
-        </is>
-      </c>
       <c r="K95" t="inlineStr">
+        <is>
+          <t>Modelagem, coleta, limpeza e transformação de dados, suporte na construção e manutenção de pipelines de dados, participação na modelagem de dados para soluções de GenAI, colaboração com equipes multidisciplinares, criação e otimização de bancos de dados, apoio na arquitetura de dados, implementação de políticas de governança de dados, contribuição para documentação dos processos e fluxos de dados.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Vaga21.pdf</t>
         </is>
@@ -5842,7 +6337,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Disponibilidade de 30 horas semanais, previsão de formatura até Dezembro/2025, curso superior em áreas específicas, conhecimento básico em Google Ads e Facebook Ads, inglês intermediário, habilidades analíticas, habilidade em trabalhar em equipe, capacidade de comunicação, certificações e experiência são diferenciais</t>
+          <t>Disponibilidade 30h semanais, Formatura até Dezembro/2025, Curso superior em áreas específicas, Conhecimento básico em Google Ads e Facebook Ads, Inglês intermediário</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5857,25 +6352,30 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Horário flexível, trabalho remoto, incentivos à capacitação</t>
+          <t>Trabalho remoto, Gympass, Horário flexível, Incentivos à capacitação</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Estudantes de áreas relacionadas à ciência, tecnologia, engenharia, matemática ou marketing</t>
+          <t>Ciência, tecnologia, engenharia, matemática ou marketing</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Marketing Digital, Mídias de Performance</t>
+          <t>Até Dezembro/2025</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Gestão de mídias pagas, análise de resultados, elaboração de planejamento e orçamento, gerenciamento de operações diárias, auxílio em projetos simultâneos.</t>
+          <t>Mídias de Performance</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
+        <is>
+          <t>Gestão de mídias pagas, análises de resultados, elaboração de planejamentos, gerenciamento de operações, contribuição para planejamento de marketing integrado, auxílio em projetos simultâneos.</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Vaga22.pdf</t>
         </is>
@@ -5899,40 +6399,45 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cursando Direito a partir do 2º ano, boa comunicação interpessoal, interesse em Legal Tech, Excel Intermediário, boas noções de escrita</t>
+          <t>Cursando Direito a partir do 2° ano, boa comunicação interpessoal, interesse em aprender sobre mercado Legal Tech, Excel Intermediário, boas noções de escrita</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Salário a combinar</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>100% Remoto</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Vale-alimentação/refeição, Auxílio Home Office, Bônus anual por resultados, Voucher para Kit Setup, Day Off aniversário, Parcerias e descontos</t>
+          <t>Vale-alimentação/Vale-refeição, Auxílio Home Office, Bônus anual por resultados, Voucher para Kit Setup, Day Off aniversário, Parcerias e descontos</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Estudantes de Direito</t>
+          <t>Direito</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
+          <t>A partir do 2° ano</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
           <t>Suporte</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Prestar suporte a tickets, analisar erros, proporcionar boa experiência aos clientes</t>
-        </is>
-      </c>
       <c r="K97" t="inlineStr">
+        <is>
+          <t>Prestar suporte a tickets, identificar erros, proporcionar melhor experiência para clientes.</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Vaga23.pdf</t>
         </is>
@@ -5956,7 +6461,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior em Design Gráfico, Conhecimento em Figma, Noções de projetos ágeis, Inglês avançado/fluente</t>
+          <t>Cursando Ensino Superior em Design Gráfico com previsão de conclusão para 2026/1, Noções em desenvolvimento de interfaces, Noções com criação de novos produtos, Conhecimento em Figma, Noções de projetos ágeis, Inglês avançado/fluente para conversação</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5971,25 +6476,30 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Plano de Saúde, Plano Odontológico, Gympass, Auxílio home office, VR/VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idiomas, Programa de treinamentos internos</t>
+          <t>Plano de Saúde + Odontológico, Médico da empresa, Gympass (+3 dependentes), Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idiomas, Programa de treinamentos internos</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Estagiários de Design</t>
+          <t>Design Gráfico</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
+          <t>2026/1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
           <t>UI/UX Design</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Criar interfaces e experiências inovadoras, Maximizar tempo de desenvolvimento, Participar de diferentes tipos de projetos, Realizar testes de aceitação, Contribuir para o nível de excelência da equipe de Design, Apoiar a realização de pesquisas com os usuários, Desenvolver interfaces funcionais, Atuar com diferentes tipos de projeto.</t>
-        </is>
-      </c>
       <c r="K98" t="inlineStr">
+        <is>
+          <t>Criar interfaces e experiências inovadoras para os usuários, Maximizar tempo de desenvolvimento, Participar de diferentes tipos de projetos e testes com os usuários, Realizar testes de aceitação com o cliente, Contribuir para o nível de excelência da equipe de Design, Apoiar a realização de pesquisas com os usuários, Desenvolver interfaces funcionais, Atuar com diferentes tipos de projeto, projetos críticos e complexos.</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Vaga24.pdf</t>
         </is>
@@ -6028,25 +6538,30 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida</t>
+          <t>Possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Talentos apaixonados por vendas</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
           <t>Inside Sales</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Conduzir processo comercial, executar sequências de contato, desenvolver relacionamentos com clientes, manter registros de atividades de vendas, observar métricas e indicadores.</t>
-        </is>
-      </c>
       <c r="K99" t="inlineStr">
+        <is>
+          <t>Conduzir processo comercial, executar sequências de contato, desenvolver relacionamentos, manter registros de vendas, observar métricas e indicadores.</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Vaga25 (1).pdf</t>
         </is>
@@ -6060,7 +6575,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Estágio de Verão em Marketing</t>
+          <t>Estágio de Férias em Marketing</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6070,7 +6585,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cursando Marketing ou Publicidade e Propaganda, conhecimento em ferramentas de marketing digital e design gráfico, habilidades de comunicação, proatividade.</t>
+          <t>Cursando Marketing ou Publicidade e Propaganda (06 ao 08 semestre), Conhecimento em ferramentas de marketing digital, Conhecimento em softwares de design gráfico, Excelentes habilidades de comunicação, Conhecimento básico em marketing digital, Edição de pequenos vídeos desejável, Capacidade de trabalhar em equipe, Proatividade e disposição.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6085,25 +6600,30 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Bolsa Auxílio, Certificado de horas</t>
+          <t>Bolsa Auxílio</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Estudantes de Marketing ou Publicidade e Propaganda</t>
+          <t>Marketing ou Publicidade e Propaganda</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
+          <t>06 ao 08 semestre</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
           <t>Marketing, Publicidade e Propaganda</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Criação de Materiais Gráficos, Pesquisa de Tendências, Desenvolvimento de Campanhas, Produção de Conteúdo, Planejamento de Mídia, Pesquisa de Mercado, Brainstorming e Briefings, Eventos.</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>Vaga25 (10).pdf</t>
         </is>
@@ -6117,7 +6637,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Estágio em Engenharia Química</t>
+          <t>Estágio de Product Owner</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6127,12 +6647,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Cursando ensino superior em Engenharia, previsão de conclusão para 2026/2, gosto por tecnologia, análise de problemas, interesse em Gestão de Produtos em framework ágil, inglês avançado</t>
+          <t>Cursando Engenharia, previsão de formatura para 2026/2, gosto por tecnologia, análise de problemas, interesse em Gestão de Produtos em framework ágil, inglês avançado</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6142,25 +6662,30 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Plano de Saúde, Odontológico, Médico da empresa, Gympass, Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa</t>
+          <t>Plano de Saúde, Plano Odontológico, Médico da empresa, Gympass, Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Engenharia Química, Desenvolvimento de Software</t>
+          <t>2026/2</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Atuar em projetos de desenvolvimento de software, discutir e transcrever requisitos em inglês, apoiar o time de desenvolvimento, analisar e solucionar problemas, entre outras atividades.</t>
+          <t>Engenharia, Automação, Desenvolvimento de Software, TI Industrial, Consultoria</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
+        <is>
+          <t>Atuar em projetos de desenvolvimento de software para a indústria de Química e Petroquímica, discutir, entender e transcrever requisitos em inglês, apoiar o time de desenvolvimento em dúvidas de negócio e usabilidade, analisar e solucionar problemas.</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Vaga25 (11).pdf</t>
         </is>
@@ -6174,7 +6699,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Estágio</t>
+          <t>Estágio Regular</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6184,7 +6709,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificados no texto</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6194,30 +6719,35 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada no texto</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificados no texto</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Summer Interns e Interns</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Consultoria de alta gestão</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing e Vendas, Serviços Transacionais, Operações e Organizações</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
+        <is>
+          <t>Não especificadas no texto</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Vaga25 (12).pdf</t>
         </is>
@@ -6241,7 +6771,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ensino superior, cursos prioritários, postura curiosa e criativa, perfil colaborativo, disponibilidade para estágio híbrido/presencial</t>
+          <t>Matriculado no ensino superior, previsão de formatura, cursos prioritários, postura curiosa e criativa, perfil colaborativo, disponibilidade para modelo híbrido/presencial</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -6261,20 +6791,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Estudantes com previsão de conclusão entre dezembro de 2025 e dezembro de 2026</t>
+          <t>Engenharias, Administração, Economia, Relações Internacionais, Design, Marketing, Comunicação, Ciências da Computação, Sistemas da Informação, Análise e Desenvolvimento de Sistemas, Matemática, Estatística e áreas afins</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Engenharias, Administração, Economia, Relações Internacionais, Design, Marketing, Comunicação, Ciências da Computação, Sistemas da Informação, Análise e Desenvolvimento de Sistemas, Matemática, Estatística e áreas afins</t>
+          <t>Dezembro de 2025 a dezembro de 2026</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Participar de projetos, elaborar estratégias, trabalhar com tecnologias, atuar em diferentes indústrias e clientes, colaborar com times em soluções inovadoras e disruptivas.</t>
+          <t>Diversas indústrias e clientes</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
+        <is>
+          <t>Atuar em projetos, elaborar estratégias, trabalhar com tecnologias, desenvolver habilidades profissionais, integrar times, colaborar em soluções inovadoras e disruptivas.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>Vaga25 (13).pdf</t>
         </is>
@@ -6298,7 +6833,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Candidatura simplificada, carreira desafiadora, alta energia, mente aberta</t>
+          <t>Candidatura simplificada</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6308,30 +6843,35 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Summer Interns e Interns</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing e Vendas, Serviços Transacionais, Operações e Organizações</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Não especificadas</t>
+          <t>Consultoria de alta gestão</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
+        <is>
+          <t>Compor o time de Summer Interns e Interns, participar de eventos de seleção.</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Vaga25 (14).pdf</t>
         </is>
@@ -6340,12 +6880,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Banco ABC Brasil S/A</t>
+          <t>Banco ABC</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Estagiário na área de macroeconomia/tesouraria</t>
+          <t>Estagiário(a) em macroeconomia/tesouraria</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6355,12 +6895,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Habilidade com manipulação de dados, conhecimento em métodos quantitativos, cursando graduação em economia, engenharia, matemática ou estatística, inglês avançado</t>
+          <t>Habilidade com manipulação de dados, conhecimentos sólidos em métodos quantitativos, cursando graduação em economia, engenharia, matemática ou estatística, inglês avançado</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6375,20 +6915,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Estagiários</t>
+          <t>Economia, Engenharia, Matemática ou Estatística</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Macroconomia/Tesouraria</t>
+          <t>Preferencialmente conclusão em dezembro/2025 em diante</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Construção e manutenção de base de dados e modelos econométricos, auxílio a análises para as mesas de Trading &amp; ALM, otimização de modelos de projeção econométricos, automatização de rotinas, planilhas e apresentações do departamento econômico e da tesouraria.</t>
+          <t>Macro economia/tesouraria</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
+        <is>
+          <t>Construção e manutenção de base de dados e modelos econométricos, auxílio em análises para as mesas de Trading &amp; ALM, otimização de modelos de projeção econométricos, automatizar rotinas, planilhas e apresentações do departamento econômico e da tesouraria</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Vaga25 (15).pdf</t>
         </is>
@@ -6412,7 +6957,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cursar Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins; disponibilidade de 6h/dia por 2 anos, residir em São Paulo/SP</t>
+          <t>Cursar Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins, disponibilidade de atuar 6h/dia por 2 anos, residir em São Paulo/SP, estar conectado aos valores e comportamentos da Eneva</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -6422,30 +6967,35 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>6h/dia</t>
+          <t>6h/dia por 2 anos</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Bolsa auxílio, Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
+          <t>Bolsa auxílio, Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte ou transporte fornecido pela empresa, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
           <t>Backoffice, Novos Negócios e Portfólio</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Participar do programa de estágio, desenvolver habilidades, seguir os valores e comportamentos da empresa</t>
-        </is>
-      </c>
       <c r="K106" t="inlineStr">
+        <is>
+          <t>Desenvolver habilidades importantes, vivenciar o dia a dia do negócio, atrair e reter talentos, colaborar em um ambiente inovador e resiliente.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Vaga25 (16).pdf</t>
         </is>
@@ -6474,35 +7024,40 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>6 horas diárias</t>
+          <t>6hs diárias em horário comercial</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Plano de mentoria, dia de folga no mês do aniversário, serviço de telemedicina, canal de apoio psicológico, assistência médica e odontológica, auxílio-internet, vale refeição/alimentação (pacote de benefícios flexíveis)</t>
+          <t>Plano de desenvolvimento profissional, cuidados com bem-estar (folga no mês de aniversário, telemedicina, apoio psicológico, assistência médica e odontológica, auxílio-internet, vale refeição/alimentação)</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pessoas com deficiência (PcD)</t>
+          <t>Superior em Psicologia ou áreas afins</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Administração, Consultoria Tributária</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
+          <t>Business Partner, Consultoria Tributária</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
           <t>Apoio no Onboarding de estagiários/staff, suporte em relatórios, cadastro de informações e atualizações da área, acompanhamento e cobranças de pendências, atendimento e suporte aos clientes internos.</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>Vaga25 (17).pdf</t>
         </is>
@@ -6526,7 +7081,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Cursando superior em Engenharia; Idioma Inglês avançado; Conhecimento em Pacote office; Disponibilidade para viagens</t>
+          <t>Cursando superior em Engenharia (Mecânica, Elétrica, Química, Produção ou Metalúrgica), Inglês avançado, Conhecimento em Pacote office</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6546,20 +7101,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
+          <t>Não mencionado</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
           <t>Controle de Qualidade</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Auxiliar os analistas, Follow ups, Elaboração de relatórios, Emissão de controle de lote.</t>
-        </is>
-      </c>
       <c r="K108" t="inlineStr">
+        <is>
+          <t>Auxiliar os analistas na interface entre fornecedor e fábrica, Follow ups das ocorrências, Elaborar relatórios, Emissão de controle de lote inicial.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Vaga25 (18).pdf</t>
         </is>
@@ -6583,12 +7143,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Cursar Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática, Estratégia ou áreas afins, disponibilidade de 6h/dia por 2 anos, residir em São Paulo/SP, estar conectado aos valores e comportamentos da Eneva</t>
+          <t>Cursar Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins, disponibilidade de 6h/dia por 2 anos, residir em São Paulo/SP e estar conectado aos valores da empresa</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Salário a combinar, bolsa auxílio</t>
+          <t>Salário a combinar, Bolsa auxílio</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6598,25 +7158,30 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte ou transporte fornecido pela empresa, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
+          <t>Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração, Ciências Econômicas, Engenharias, Ciência de Dados, Matemática ou áreas afins</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
+          <t>não especificado</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
           <t>Backoffice, Novos Negócios e Portfólio</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Desenvolver habilidades importantes, vivenciar o dia a dia do negócio, colaborar em um ambiente acolhedor e desafiador.</t>
-        </is>
-      </c>
       <c r="K109" t="inlineStr">
+        <is>
+          <t>Desenvolver habilidades importantes, participar do dia a dia do negócio, vivenciar o ambiente colaborativo e inovador, seguir os comportamentos da empresa.</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Vaga25 (19).pdf</t>
         </is>
@@ -6640,7 +7205,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Experiência em funções administrativas ou financeiras, conhecimento em software ERP SAP 4/Hana</t>
+          <t>Experiência em funções administrativas ou financeiras, conhecimento em software de contabilidade ou ERP SAP 4/Hana, formação em Administração, Gestão Financeira, Contabilidade ou área relacionada é desejável</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6655,25 +7220,30 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, Plano de Saúde e Odontológico, Seguro de vida</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Administração, Gestão Financeira, Contabilidade ou área relacionada</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Financeira/Administrativa</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Processamento de pagamentos, revisão de faturas, conciliação bancária, relacionamento com fornecedores, organização de documentos, colaboração em auditorias.</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
+        <is>
+          <t>Processamento de pagamentos, revisão de faturas, relacionamento com fornecedores, conciliações bancárias, organização de documentos, colaboração em auditorias, cumprimento de políticas e procedimentos.</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Vaga25 (2).pdf</t>
         </is>
@@ -6697,7 +7267,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Estudantes de Business, Economics, Accounting, Engineering ou áreas relacionadas, fluência em inglês, formatura em 1.5 anos ou mais, conhecimento em Corporate Finance, habilidades de comunicação, conhecimento macroeconômico, foco no cliente, trabalho em equipe e responsabilidade.</t>
+          <t>Estudantes de Negócios, Economia, Contabilidade, Engenharia ou cursos relacionados; turno noturno; previsão de formatura em 1,5 anos ou mais; inglês fluente.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6717,20 +7287,25 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Negócios, Economia, Contabilidade, Engenharia</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
+          <t>1,5 anos ou mais</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
           <t>Corporate Banking</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Auxiliar na oferta de produtos relacionados a empréstimos e serviços financeiros para grandes empresas e instituições financeiras.</t>
-        </is>
-      </c>
       <c r="K111" t="inlineStr">
+        <is>
+          <t>Fornecer uma ampla gama de produtos relacionados a empréstimos e serviços financeiros a grandes corporações e instituições financeiras multinacionais. Desenvolver relacionamentos de longo prazo com grandes empresas. Oferecer produtos e serviços relacionados às atividades de empréstimo entre um banco e seus clientes.</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Vaga25 (20).pdf</t>
         </is>
@@ -6759,7 +7334,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Salário a combinar</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6774,20 +7349,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Pessoas com Deficiência (PCDs)</t>
+          <t>Administração, Tecnologia, Engenharias e/ou correlatas</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
           <t>Qualidade, Analytics e Dados</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Auxiliar na apuração e construção de Dashboard em Power BI; Auxiliar na criação de novas pesquisas (SQL, Phyton e PySpark); Auxiliar no mapeamento da experiência do cliente.</t>
-        </is>
-      </c>
       <c r="K112" t="inlineStr">
+        <is>
+          <t>Auxiliar na apuração e construção de Dashboard em Power BI, Auxiliar na criação de novas pesquisas (SQL, Phyton e PySpark), Auxiliar no mapeamento da experiência do cliente.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Vaga25 (21).pdf</t>
         </is>
@@ -6801,7 +7381,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Banco de Talentos Afirmativo para Pessoas com Deficiência (PCD) - Comercial</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6826,25 +7406,30 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Vale-refeição e/ou alimentação, Plano de saúde, Plano odontológico, Total Pass, PPR, Programa de sócios, Universidade interna, Folga de presente, Pesquisa de clima, Avaliação de performance, Teleatendimento psicológico e médico gratuito, Licença-maternidade e paternidade, Dr. Pet</t>
+          <t>Vale-refeição, plano de saúde, plano odontológico, Total Pass, PPR, Programa de sócios, Universidade interna, Folga de aniversário, Pesquisa de clima, Avaliação de performance, Teleatendimento psicológico e médico, Licença-maternidade e paternidade, Dr. Pet</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Pessoas com deficiência com CID homologado</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Não especificadas</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
+        <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>Vaga25 (22).pdf</t>
         </is>
@@ -6868,7 +7453,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Strong academic background, analytical skills, high motivation levels, outstanding interpersonal skills, all disciplines/degrees welcome, on track to graduate by June 2026</t>
+          <t>Strong academic background, analytical skills, high motivation levels, outstanding interpersonal skills, all disciplines/degrees are welcome, on track to graduate by June 2026</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6883,25 +7468,30 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Current students, potential full-time offer upon completion of studies</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Consulting industry, business strategy</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Work on a case team, interview clients' customers, competitors, suppliers and employers, own and identify information sources, gather and interpret data, execute analysis, present findings to case team members and client stakeholders.</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
+        <is>
+          <t>Trabalhar em equipe de projeto, entrevistar clientes, identificar fontes de informação, apresentar resultados aos stakeholders.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Vaga25 (3).pdf</t>
         </is>
@@ -6925,12 +7515,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Experiência com Customer Success, retenção de clientes, habilidades de comunicação, formação em áreas relacionadas</t>
+          <t>Experiência em Customer Success, retenção de clientes, habilidades de comunicação, formação em Marketing, Comunicação, Administração de Empresas ou áreas relacionadas</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>Salário a combinar</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6940,25 +7530,30 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida</t>
+          <t>Possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Profissionais motivados, orientados para resultados e apaixonados por ajudar os clientes</t>
+          <t>Marketing, Comunicação, Administração de Empresas ou áreas relacionadas</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Marketing, Comunicação, Administração de Empresas ou áreas relacionadas</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Desenvolver e manter relacionamentos com clientes, entender metas e objetivos dos clientes, resolver problemas dos clientes, colaborar com equipes internas, promover a melhor experiência aos clientes, gerenciar reclamações, fidelizar clientes.</t>
+          <t>Customer Success, Customer Experience, Retenção de Clientes</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
+        <is>
+          <t>Desenvolver e manter relacionamentos com clientes, entender metas e objetivos, resolver problemas, colaborar com equipes internas, promover a melhor experiência aos clientes, gerenciar reclamações, fidelizar clientes.</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Vaga25 (4).pdf</t>
         </is>
@@ -6972,7 +7567,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Analista de Treinamento</t>
+          <t>Analista de Treinamento - Júnior</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6982,7 +7577,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Experiência prévia em lidar com clientes, formação em áreas relacionadas ao treinamento, habilidades de comunicação, capacidade de se adaptar a mudanças</t>
+          <t>Experiência em lidar com clientes, formação em áreas relacionadas ao treinamento e desenvolvimento, habilidades de comunicação, capacidade de se adaptar a mudanças, habilidade para trabalhar de forma colaborativa</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6992,12 +7587,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills e Staage, plano de saúde e odontológico, seguro de vida</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7007,15 +7602,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Treinamento, desenvolvimento educacional</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Prestar suporte aos clientes, propor soluções para desenvolvimento das pessoas e do negócio, atualizar e analisar indicadores de capacitação, organizar operacionalização das turmas, acompanhar aulas online.</t>
+          <t>Educação, Treinamento</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
+        <is>
+          <t>Prestar suporte aos clientes, propor soluções para desenvolvimento das pessoas e do negócio, atualizar e analisar indicadores de capacitação, organizar operacionalização das turmas, acompanhar aulas online</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>Vaga25 (5).pdf</t>
         </is>
@@ -7049,30 +7649,35 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Estudantes interessados em se tornar Consultores Estratégicos</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Consultoria Estratégica</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Desenvolver habilidades analíticas e influenciar entregas de projetos.</t>
+          <t>Consultoria estratégica</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
+        <is>
+          <t>Auxiliar na tomada de decisões importantes dentro da empresa.</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Vaga25 (6).pdf</t>
         </is>
@@ -7096,7 +7701,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cursando Administração, Ciências Contábeis, Engenharia da Produção ou áreas correlatas. Conhecimento em Pacote Office, principalmente Excel. Desejável conhecimento em Google Workspace e SAP. Organização, boa comunicação, capacidade analítica, atenção aos detalhes e proatividade.</t>
+          <t>Cursando Administração, Ciências Contábeis, Engenharia da Produção ou áreas correlatas, conhecimento em Pacote Office (Excel), desejável conhecimento em Google Workspace e Sistema SAP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -7111,25 +7716,30 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Auxílio-refeição, auxílio-alimentação, vale-transporte, desconto em produtos, seguro de vida, Gympass, ZenClub, day off no aniversário, home office, ajuda de custo, possibilidade de efetivação, programa de desenvolvimento de carreira, equilíbrio entre vida acadêmica e estágio, ambiente informal e alegre.</t>
+          <t>Auxílio-refeição, Auxílio-alimentação, Vale-transporte, Desconto em produtos, Seguro de vida, Convênio com o Gympass e ZenClub, Day off na semana do aniversário, Home Office, Ajuda de custo Home Office, Possibilidade de efetivação, Programa de desenvolvimento de carreira</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Estudantes de nível superior matriculados em instituição de ensino.</t>
+          <t>Administração, Ciências Contábeis, Engenharia da Produção ou áreas correlatas</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Administração financeira e expansão de lojas.</t>
+          <t>Pós Julho de 2025</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Auxiliar nas rotinas administrativas e financeiras, controle de pagamentos, conferência de dados financeiros, análise de desempenho financeiro dos contratos, cumprimento dos fluxos de procedimentos, suporte nas atividades da área.</t>
+          <t>Administrativo Financeiro, Expansão de Lojas</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
+        <is>
+          <t>Rotinas Administrativas e Financeiras, Controle de Pagamento, Conferência de Dados Financeiros, Análise de Desempenho Financeiro dos Contratos, Cumprimento dos Fluxos de Procedimentos Administrativos e Financeiros, Suporte nas Atividades da Área.</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Vaga25 (7).pdf</t>
         </is>
@@ -7153,7 +7763,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior, interesse em mercado financeiro, conhecimento intermediário em Pacote Office, inglês básico</t>
+          <t>Cursando Ensino Superior, interesse por mercado financeiro, conhecimento intermediário em Pacote Office, inglês básico</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -7163,7 +7773,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7173,20 +7783,25 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Estudantes de Direito, Ciências Econômicas, Contabilidade, entre outros</t>
+          <t>Direito, Ciências Econômicas, Contabilidade, entre outros</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>DCM - Estruturação, mercado financeiro, mercado de capitais</t>
+          <t>A partir do 1º ano</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Suporte ao time de DCM, participação no processo de originação e distribuição de ativos financeiros, uso de ferramentas do time, habilidades em resolução de problemas, comunicação e trabalho em equipe, análise crítica, flexibilidade e adaptação a mudanças, organização e atenção aos detalhes.</t>
+          <t>DCM - Estruturação</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
+        <is>
+          <t>Suporte ao time de DCM, participação no processo de originação, estruturação e distribuição de produtos financeiros, participação em calls, uso de ferramentas do time, habilidades em resolução de problemas, comunicação, análise crítica, flexibilidade, organização e atenção aos detalhes.</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Vaga25 (8).pdf</t>
         </is>
@@ -7210,7 +7825,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>18 anos, matrícula ativa em universidade, disponibilidade de 15h semanais, interesse em vendas e trabalho voluntário</t>
+          <t>Ter no mínimo 18 anos, matrícula ativa em uma universidade, disponibilidade para participar de um ciclo de voluntariado de 5 semanas, querer se desenvolver em vendas, interesse por trabalho voluntário</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -7220,30 +7835,35 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>5 semanas, 15h semanais</t>
+          <t>15h semanais (segunda à sexta)</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Experiência profissional voluntária, networking, desenvolvimento de habilidades, mentoria de carreira, premiações exclusivas</t>
+          <t>Experiência profissional voluntária, networking, desenvolvimento de habilidades, mentoria de carreira, participação de banca final, premiações exclusivas</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Liderança na Prática</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
+          <t>Não mencionado</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
           <t>Vendas, operações, divulgação</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>Vendas, operações, divulgação</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>Vaga25 (9).pdf</t>
         </is>
@@ -7267,7 +7887,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Experiência em cobrança ou atendimento ao cliente, habilidades de comunicação, autonomia, formação em Administração, Gestão Financeira ou Contabilidade, conhecimento em SAP</t>
+          <t>Experiência prévia em cobrança, habilidades de comunicação, formação em Administração ou áreas relacionadas, conhecimento em SAP</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -7282,25 +7902,30 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Possibilidade de sociedade, ambiente vibrante, aulas de inglês, Gympass, plano de saúde e odontológico, seguro de vida</t>
+          <t>Possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Candidatos com experiência em cobrança ou atendimento ao cliente</t>
+          <t>Administração, Gestão Financeira, Contabilidade ou áreas relacionadas</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Financeira</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Contato com clientes inadimplentes, negociação de pagamento, controle de faturamentos, emissão de boletos e notas fiscais.</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
+        <is>
+          <t>Contato com clientes inadimplentes, negociação de pagamentos, controle de faturamento, emissão de boletos e notas fiscais.</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Vaga25.pdf</t>
         </is>
@@ -7314,7 +7939,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Associate Consultant Intern (estágio regular - 6 a 12 meses)</t>
+          <t>Estágio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7344,20 +7969,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Estudantes universitários ou recém formados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
           <t>Consultoria estratégica</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Identificação de fontes de informação, coleta e interpretação de dados, apresentação de resultados, entrevistas com consumidores e supervisão de colegas.</t>
-        </is>
-      </c>
       <c r="K122" t="inlineStr">
+        <is>
+          <t>Trabalhar em equipe, coletar e interpretar dados, entrevistar consumidores, supervisionar colegas.</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>vaga3.txt</t>
         </is>
@@ -7371,7 +8001,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Estágio em Talent Acquisition</t>
+          <t>Estágio em Talent Acquisition (Atração e Seleção)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7381,7 +8011,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Ensino Superior em andamento, Pacote Office, disponibilidade para trabalho híbrido em Porto Alegre/RS, proatividade, comunicação, flexibilidade, organização, relacionamento interpessoal</t>
+          <t>Ensino Superior em andamento, habilidades com Pacote Office, disponibilidade para trabalho híbrido em Porto Alegre/RS, proatividade, comunicação, flexibilidade, organização, bom relacionamento interpessoal</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -7396,25 +8026,30 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Vale Refeição, Vale Transporte, TotalPass, dia de folga no mês do aniversário, desconto em livros</t>
+          <t>Vale Refeição, Vale Transporte, Academia TotalPass, dia de folga no mês do aniversário, desconto em livros</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Estudantes de Ensino Superior</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Recursos Humanos, Desenvolvimento, Talent Acquisition</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Atração e Seleção, mapeamento de talentos, hunting, alinhamento de perfil, entrevistas, admissão, People Analytics, gestão de plataformas de seleção.</t>
+          <t>Recursos Humanos, Desenvolvimento, Atração e Seleção</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
+        <is>
+          <t>Encontrar, qualificar e nutrir relacionamento com talentos, mapear talentos no mercado, atuar na busca ativa de candidatos, realizar entrevistas, auxiliar no processo de admissão, apoiar em questões de People Analytics, gerir plataformas de seleção.</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>vaga4.txt</t>
         </is>
@@ -7438,7 +8073,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Graduação em Ciências Agrárias, disponibilidade eventual em MG ou SP</t>
+          <t>Graduação em Ciências Agrárias, interesse na área comercial, disponibilidade de estar presente em MG ou SP</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -7458,20 +8093,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Estudantes de Ciências Agrárias</t>
+          <t>Ciências Agrárias</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Comercial, Vendas Internas</t>
+          <t>Do 4º ao 8º período</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Apoio em processos de vendas internas, contato com clientes, acompanhamento de pedidos, suporte pós-venda, aprender sobre produtos e serviços, entender necessidades dos clientes.</t>
+          <t>Vendas Internas</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
+        <is>
+          <t>Dar apoio nos processos de vendas internas, aprender sobre produtos e serviços, entender necessidades dos clientes.</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>vaga5.txt</t>
         </is>
@@ -7495,7 +8135,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>cursos de Ciência da Computação, Engenharias, Sistemas de Informação, conhecimento básico em metodologias ágeis e em pelo menos uma linguagem de programação e framework</t>
+          <t>Conhecimento básico em metodologias ágeis, padrões de projeto e arquitetura de sistemas, conhecimento básico em pelo menos uma linguagem de programação e framework</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -7515,20 +8155,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Universitários dos cursos mencionados</t>
+          <t>Ciência da Computação, Engenharias, Sistemas de Informação e afins</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Engenharia de Dados, Automação de Processos, Gestão de TI, Desenvolvimento de Software</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Desenvolvimento front-end e/ou back-end, correção de bugs, definição de tecnologias, proposição e implementação de novas ferramentas, compartilhamento de conhecimento técnico.</t>
+          <t>Engenharia de Dados, Automação de Processos, Gestão de TI e Desenvolvimento de Software</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
+        <is>
+          <t>Desenvolvimento front-end e/ou back-end, correção de bugs, definição de melhores tecnologias, implementação de novas ferramentas, compartilhar conhecimento técnico.</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>vaga6.txt</t>
         </is>
@@ -7542,7 +8187,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Programa de Estágio</t>
+          <t>Estágio</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7552,7 +8197,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Graduação a partir do 6º período, conhecimento em alguma linguagem de programação, inglês avançado</t>
+          <t>Graduação a partir do 6º período, Conhecimento em alguma linguagem de programação, Inglês avançado</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7567,25 +8212,30 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Participação dos lucros e resultados, plano de saúde, plano odontológico, Gympass, cartão de benefícios flexíveis, Zenklub, programa de idiomas, parceria com FIAP Escola de Tecnologia, trabalho remoto, programa de treinamento, plano de carreira definido, horário flexível, programa de mentoria, licença parental de 6 meses.</t>
+          <t>Participação nos lucros, Plano de Saúde, Plano Odontológico, Gympass, Cartão de benefícios flexíveis, Zenklub, Programa de Idiomas, Parceria com FIAP Escola de Tecnologia, Trabalho Remoto, Programa de treinamento, Plano de carreira, Horário flexível, Programa de mentoria, Licença parental de 6 meses</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Estudantes a partir do 6º período da graduação</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Tech, RPA (Robotic Process Automation)</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Desenvolver soluções em RPA, contribuir para entregas de automação, programar.</t>
+          <t>RPA (Robotic Process Automation)</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
+        <is>
+          <t>Desenvolver soluções em RPA, Contribuir para entregas de soluções de automação, Programar no dia a dia.</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>vaga7.txt</t>
         </is>
@@ -7609,7 +8259,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Cursando Administração, Economia, Engenharias, Estatística</t>
+          <t>Cursando Administração, Economia, Engenharias, Estatística. Excel intermediário/avançado.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7619,7 +8269,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Horário flexível</t>
+          <t>Horário flexível, trabalho em modelo híbrido (home office + presencial)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -7629,20 +8279,25 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Estudantes de Administração, Economia, Engenharias, Estatística</t>
+          <t>Administração, Economia, Engenharias, Estatística</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
           <t>NPS</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Acompanhamento de pesquisas de NPS, identificação de melhorias na experiência com o cliente, suporte aos times avaliados, gestão de resultados de NPS, participação em projetos de estruturação e BI.</t>
-        </is>
-      </c>
       <c r="K127" t="inlineStr">
+        <is>
+          <t>Acompanhamento de pesquisas de NPS, identificação de melhorias, suporte aos times avaliados, gestão de resultados, projetos de estruturação e BI, participação em reuniões/comitês</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Vaga76.pdf</t>
         </is>
@@ -7666,12 +8321,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Cursando Pedagogia ou outras Licenciaturas</t>
+          <t>Cursando Pedagogia ou outras Licenciaturas; Disponibilidade para estagiar de segunda a sexta-feira, das 13h30 às 17h45</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado no texto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -7686,20 +8341,25 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Estudantes de Pedagogia ou outras Licenciaturas</t>
+          <t>Pedagogia ou outras Licenciaturas</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
+          <t>Não especificado no texto</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
           <t>Educação Infantil</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Auxiliar os professores em sala de aula, acompanhar os estudantes em todos os espaços da escola.</t>
-        </is>
-      </c>
       <c r="K128" t="inlineStr">
+        <is>
+          <t>Auxiliar os professores, acompanhar os estudantes, entre outras.</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Vaga77.pdf</t>
         </is>
@@ -7723,40 +8383,45 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ensino superior em andamento em Economia, Administração, Engenharia ou afins; Conhecimento e interesse em Mercado Financeiro; Conhecimento em Excel</t>
+          <t>Ensino superior em andamento em Economia, Administração, Engenharia ou afins, Conhecimento e interesse em Mercado Financeiro, Conhecimento em Excel</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Profissionais em início de carreira e apaixonados por mercado financeiro</t>
+          <t>Economia, Administração, Engenharia</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Atendimento e BackOffice</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Atendimento ao cliente, apoio em análises, participação em planos de ação, cadastro de carteiras, geração de relatórios, apoio em treinamentos.</t>
+          <t>Mercado Financeiro, Backoffice</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
+        <is>
+          <t>Atendimento ao cliente, Apoio em análises, Participação em planos de ação, Cadastro de carteiras, Geração de relatórios, Apoio em treinamentos.</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Vaga78.pdf</t>
         </is>
@@ -7770,7 +8435,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Estágio Comercial BDR - Business Development Representative</t>
+          <t>Estágio Comercial</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -7780,40 +8445,45 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Habilidade de comunicação, proatividade, organização, experiência em vendas é um diferencial</t>
+          <t>Comunicação, Proatividade, Organização, Experiência em vendas ou atendimento ao cliente, Conhecimento em técnicas de prospecção e qualificação de leads, Trabalho em equipe</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Estudantes em busca de estágio</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Comercial, vendas, atendimento ao cliente</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Prospectar leads, contatar clientes, qualificar leads, manter CRM atualizado, agendar reuniões, participar de treinamentos.</t>
+          <t>Comercial, Business Development</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
+        <is>
+          <t>Identificar e prospectar leads, Contato com potenciais clientes, Qualificar leads, Atualizar CRM, Agendar reuniões, Participar de reuniões e treinamentos.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Vaga79.pdf</t>
         </is>
@@ -7837,7 +8507,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Cursando Engenharia de Processos, Mecânica, Automação ou áreas correlatas, Inglês Avançado/Fluente, Excel Intermediário/Avançado</t>
+          <t>Engenharia de Processos, Mecânica, Automação, Inglês Avançado/Fluente, Excel Intermediário/Avançado, Formação prevista para a partir de 2025/2</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7857,20 +8527,25 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Estudantes com formação prevista para a partir de 2025/2</t>
+          <t>Engenharia de Processos, Mecânica, Automação</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Desenvolvimento de Negócios</t>
+          <t>A partir de 2025/2</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Mapeamento e prospecção de oportunidades, pesquisas de mercado, elaboração de propostas técnicas-comerciais, acompanhamento de equipe técnica, representação da empresa, apoio na construção de propostas comerciais, elaboração de materiais de divulgação.</t>
+          <t>Desenvolvimento de Negócios, Prospecção de Oportunidades, Pesquisas de Mercado, Estimativas de Recursos para Projetos, Visitas Técnicas, Propostas Comerciais, Automação</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
+        <is>
+          <t>Mapeamento e prospecção de oportunidades, Realizar pesquisas de mercado, Elaborar propostas técnicas-comerciais, Acompanhar equipe técnica, Representar a empresa em visitas técnicas, Elaborar propostas comerciais e orçamentárias, Elaborar materiais de divulgação de soluções.</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>vaga8.txt</t>
         </is>
@@ -7894,7 +8569,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Cursando ensino superior, previsão de conclusão após Setembro de 2025, disponibilidade para estagiar 30 horas semanais</t>
+          <t>Cursando ensino superior a partir do segundo semestre em áreas de Comunicação, previsão de formatura após Setembro de 2025, disponibilidade para estagiar 30 horas semanais em Farroupilha/RS</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7909,25 +8584,30 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Dólar Bolsa, auxílio transporte, refeitório coletivo, cesta básica, assistência odontológica e ambulatorial, presente de páscoa e natal, acesso a cursos online, trilha de desenvolvimento exclusiva</t>
+          <t>Dólar, Refeitório coletivo, Cesta básica, Assistência odontológica e ambulatorial, Presentes de páscoa e natal, Acesso a cursos online e trilha de desenvolvimento exclusiva</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Estudantes de cursos relacionados à área de comunicação</t>
+          <t>Publicidade e Propaganda, Marketing, Comunicação Social, Jornalismo, Relações Públicas, entre outros relacionados à Comunicação</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
+          <t>Após Setembro de 2025</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
           <t>Comunicação</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Suporte em tarefas operacionais do time de comunicação, criação de conteúdo para diferentes plataformas</t>
-        </is>
-      </c>
       <c r="K132" t="inlineStr">
+        <is>
+          <t>Suporte nas tarefas operacionais do time de comunicação, criação de conteúdo para diferentes plataformas.</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Vaga80.pdf</t>
         </is>
@@ -7936,7 +8616,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>UNICESUMAR</t>
+          <t>UniCesumar</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7951,7 +8631,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Cursando graduação em áreas relacionadas a TI, conhecimento básico em Análise de Dados e Estatística</t>
+          <t>Cursando graduação em áreas relacionadas a TI, conhecimento em Análise de Dados e Estatística</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7966,25 +8646,30 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Bolsa Educação, Vale Alimentação e/ou Refeição, Auxílio Transporte, Day Off, Telemedicina, Convênios com clínicas, restaurante e academia da instituição</t>
+          <t>Vale Alimentação, Auxílio Transporte, Day Off, Telemedicina, Convênios</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Tecnologia da Informação</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
           <t>Tecnologia da Informação</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Análise e interpretação de dados, apoio em análises estatísticas, verificação da integridade dos dados, auxílio em demandas do setor.</t>
-        </is>
-      </c>
       <c r="K133" t="inlineStr">
+        <is>
+          <t>Análise de dados, apoio em análises estatísticas, verificação da integridade dos dados, auxílio em demandas do setor.</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Vaga81.pdf</t>
         </is>
@@ -8008,7 +8693,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Cursando Comércio Exterior, Relações internacionais, Economia, Administração; Formação prevista à partir de Dez/2026; Disponibilidade de realizar o estágio das 07h00 às 14h00; Inglês Intermediário; Excel Intermediário; Boa comunicação, iniciativa e trabalho em equipe.</t>
+          <t>Cursando Comércio Exterior, Relações Internacionais, Economia, Administração; Formação prevista a partir de Dez/2026; Inglês Intermediário; Excel Intermediário; Boa comunicação, iniciativa e trabalho em equipe.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -8023,25 +8708,30 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Plano de saúde, Plano odontológico, Restaurante interno, Transporte fretado, Vale alimentação e Seguro de vida</t>
+          <t>Plano de saúde, Plano odontológico, Restaurante interno, Transporte fretado, Vale alimentação e Seguro de vida.</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Comércio Exterior, Relações Internacionais, Economia, Administração</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Comércio Exterior</t>
+          <t>A partir de Dez/2026</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Suporte em demandas de aduaneiras, ICMS, INMETRO/IBAMA/MAPA/exército, importação e exportação, entre outras.</t>
+          <t>Customs, otimização da cadeia de suprimentos, importação e exportação, conformidades legais e compliance</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
+        <is>
+          <t>Suporte nas demandas relacionadas a ICMS, admissões temporárias, demandas do INMETRO/IBAMA/MAPA/exército, reporte de importação de CBUs e KPIs, auxílio no protocolo de declaração de importação, suporte na criação de PRs/Pos.</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Vaga82.pdf</t>
         </is>
@@ -8065,12 +8755,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Pessoas felizes, residir em São José dos Campos/SP, graduação em andamento em Administração, Ciências Contábeis ou Ciências Econômicas</t>
+          <t>Pessoas felizes, Conhecimento do Pacote Office, Graduação em Administração, Ciências Contábeis ou Ciências Econômicas, Residir em São José dos Campos/SP</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>não especificada</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -8085,20 +8775,25 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Estudantes universitários</t>
+          <t>Administração, Ciências Contábeis ou Ciências Econômicas</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Financeira, Cooperativismo</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Relacionamento com associados, Auxílio no atendimento aos associados, Suporte em demandas operacionais, Fazer a diferença na vida das pessoas.</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
+        <is>
+          <t>Relacionamento com associados, Atendimento aos associados, Suporte operacional, Fazer a diferença na vida das pessoas.</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Vaga83.pdf</t>
         </is>
@@ -8122,7 +8817,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Cursando Engenharias, Formação prevista a partir de Dez/26, Disponibilidade de horário, Inglês Intermediário/avançado, Excel Intermediário, Boa comunicação, iniciativa, influência e negociação.</t>
+          <t>Cursando Engenharias, Formação prevista a partir de Dez/26, Disponibilidade das 07h00 às 14h00, Inglês Intermediário/Avançado, Excel Intermediário, Boa comunicação, iniciativa, influência e negociação.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -8142,20 +8837,25 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharias</t>
+          <t>Engenharias</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
+          <t>A partir de Dez/26</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
           <t>Planejamento de Carroceria</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>Auxílio em atividades administrativas, Elaboração de pedidos de compras, Elaboração de relatórios técnicos, Controle de materiais, Elaboração de apresentações em Power Point, Planejamento e Controle de recebimento de peças, equipamentos e materiais referentes a novos projetos.</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>Vaga84.pdf</t>
         </is>
@@ -8179,7 +8879,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Graduação em Engenharia Civil (a partir do 4° semestre), disponibilidade de estagiar das 8h às 14h de Segunda a Sexta, conhecimento em Revit, Arquicad ou Project, conhecimento em Pacote Office</t>
+          <t>Graduação em Engenharia Civil a partir do 4° semestre, disponibilidade de estágio das 8h às 14h de segunda a sexta, conhecimento em Revit, Arquicad ou Project, conhecimento em Pacote Office</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -8189,7 +8889,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>6 horas diárias, de Segunda a Sexta</t>
+          <t>6 horas diárias, de segunda a sexta</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8199,20 +8899,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia Civil</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>A partir do 4° semestre</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Suporte em projetos, desenvolvimento de projetos e desenhos arquitetônicos, acompanhamento de obras, controle de arquivos, elaboração de relatórios técnicos.</t>
+          <t>Projetos arquitetônicos, acompanhamento de obras, controle de arquivos e elaboração de relatórios técnicos</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
+        <is>
+          <t>Desenvolver e detalhar projetos e desenhos arquitetônicos, acompanhar obras, controle de arquivos, elaborar relatórios técnicos.</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Vaga85.pdf</t>
         </is>
@@ -8241,35 +8946,40 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não mencionada</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>Não mencionada</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Não especificados</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Laboratório de análises clínicas</t>
+          <t>Não mencionado</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Coleta de amostras, análises clínicas, interpretação de resultados, uso de equipamentos laboratoriais, comunicação com pacientes e equipe, entre outros.</t>
+          <t>Análises clínicas</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
+        <is>
+          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos, entre outros.</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Vaga86.pdf</t>
         </is>
@@ -8283,7 +8993,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Estágio em Eng. de Produção</t>
+          <t>Estágio em Engenharia de Produção</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8293,7 +9003,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Cursando Engenharia de Produção a partir do 5° semestre, Pacote Office, Conhecimento das ferramentas da qualidade, Capacidade analítica, Boas habilidades de comunicação, Comprometimento e proatividade.</t>
+          <t>Cursando Engenharia de Produção a partir do 5° semestre, Pacote Office, Conhecimento em ferramentas da qualidade, Capacidade analítica, Senso crítico, Habilidades de comunicação, Comprometimento, Proatividade</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -8313,20 +9023,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Estudantes de Engenharia de Produção</t>
+          <t>Engenharia de Produção</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
+          <t>A partir do 5° semestre</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
           <t>Engenharia de Produção</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Realização de cronometragem dos processos, Auxílio na análise e melhoria dos processos, Coleta e análise de dados operacionais, Colaboração em projetos de redução de custos e melhoria da eficiência, Implementação de novos processos, Participação em reuniões e treinamentos.</t>
-        </is>
-      </c>
       <c r="K139" t="inlineStr">
+        <is>
+          <t>Realização de cronoanálise, Auxílio na melhoria dos processos, Coleta de dados, Colaboração em projetos de redução de custos e aumento da eficiência, Implementação de novos processos, Contribuição para avaliação da capacidade produtiva, Participação em reuniões, treinamentos e workshops.</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Vaga87.pdf</t>
         </is>
@@ -8350,7 +9065,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Cursando Ensino Superior em Administração, Gestão de Recursos Humanos, Psicologia e/ou áreas afins, Conhecimento em Pacote Office</t>
+          <t>Cursando Ensino Superior em Administração, Gestão de Recursos Humanos, Psicologia e/ou áreas afins; Conhecimento em Pacote Office</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -8370,20 +9085,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Estudantes de Ensino Superior</t>
+          <t>Administração, Gestão de Recursos Humanos, Psicologia ou áreas afins</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
           <t>Treinamento e Desenvolvimento</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Auxiliar nas atividades das áreas de Treinamento e Desenvolvimento, Realizar inscrições em cursos externos, Auxiliar na abertura e atendimento inicial aos chamados internos, Emitir e lançar registros de treinamentos no sistema, Atualizar formações dos colaboradores no sistema, Realizar confecção e entrega de certificados e materiais de treinamentos, Apoiar na disseminação de conhecimento para os colaboradores de outros setores, Auxiliar no desenvolvimento de conteúdos de treinamentos, capacitação e aperfeiçoamento dos colaboradores, bem como programas de capacitação internos e externos, Contribuir na elaboração de planos de capacitação de novos colaboradores, junto ao gestor(a) responsável, Acompanhar o andamento das atividades relacionadas aos treinamentos.</t>
-        </is>
-      </c>
       <c r="K140" t="inlineStr">
+        <is>
+          <t>Auxiliar em atividades de Treinamento e Desenvolvimento, inscrições em cursos externos, atendimento interno, registros de treinamentos, atualização de formações, entrega de certificados, disseminação de conhecimento, desenvolvimento de conteúdos de treinamentos, elaboração de planos de capacitação, acompanhamento de atividades relacionadas aos treinamentos.</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Vaga88.pdf</t>
         </is>
@@ -8407,7 +9127,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Cursando ensino superior em Administração ou áreas correlatas, Conhecimento intermediário de pacote office, Residente da cidade de Uberaba - MG</t>
+          <t>Cursando ensino superior em Administração ou áreas correlatas, conhecimento intermediário de pacote office, residente da cidade de Uberaba - MG</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -8422,25 +9142,30 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Vale Alimentação ou Refeição (cartão Caju), Vale Transporte, Seguro de Vida</t>
+          <t>Vale Alimentação ou Refeição, Vale Transporte, Seguro de Vida</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Estagiários</t>
+          <t>Administração ou áreas correlatas</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Auxiliar nas atividades e tarefas de rotinas do setor, Auxiliar no controle e organização de documentos físicos e digitais, Auxiliar na elaboração e abastecimento de planilhas e relatórios, Auxiliar na manutenção do arquivo físico e digital do setor mantendo a organização do mesmo, Executar outras tarefas de mesma natureza e nível de complexidade associadas ao ambiente organizacional.</t>
+          <t>Gestão de projetos</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
+        <is>
+          <t>Auxiliar em atividades e tarefas de rotinas do setor, controle e organização de documentos físicos e digitais, elaboração e abastecimento de planilhas e relatórios, manutenção do arquivo físico e digital do setor, execução de outras tarefas associadas ao ambiente organizacional.</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Vaga89.pdf</t>
         </is>
@@ -8464,7 +9189,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Formatura a partir de Dez/25, capacidade analítica e criativa, pró atividade, comunicação, Excel &amp; PowerPoint avançado, Inglês avançado, SQL e Python são diferenciais</t>
+          <t>Formatura a partir de Dez/25, capacidade analítica e criativa, pró-atividade, comunicação, Excel &amp; PowerPoint avançado, Inglês avançado, SQL e Python são diferenciais</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -8479,25 +9204,30 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Vale-refeição ou alimentação, desconto em produtos Liv Up, seguro de vida, Gympass, auxílio home office</t>
+          <t>Vale-refeição ou alimentação, desconto em produtos Liv Up, créditos para compra de produtos, seguro de vida, Gympass, auxílio home office</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Estudantes universitários formandos a partir de Dez/25</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Business Intelligence, Growth</t>
+          <t>A partir de Dez/25</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Projeção de receita e custos, projeção por canais de marketing, resolução de problemas, acompanhamento de testes de Growth, automatização de processos, apresentações de resultados e planos de ação.</t>
+          <t>Growth, Business Intelligence</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
+        <is>
+          <t>Elaborar modelos de projeção de receita e custos, elaborar modelos de projeção por canais de marketing, auxiliar na resolução de problemas, acompanhar a performance de testes de Growth, automatizar processos recorrentes, explicar resultados e alinhar planos de ação, elaborar apresentações.</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>vaga9.txt</t>
         </is>
@@ -8511,7 +9241,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Estágio em Comércio Exterior na área de Customer Service LCL IMPO</t>
+          <t>Estágio em Comércio Exterior</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8521,12 +9251,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Graduando a partir do 2º ano em Relações Internacionais ou Comércio Exterior (noturno ou EAD), Inglês Intermediário/Avançado, Domínio do Pacote Office, Vontade de aprender</t>
+          <t>Graduando a partir do 2º ano em Relações Internacionais ou Comércio Exterior, Inglês Intermediário/Avançado, Domínio do Pacote Office</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Vale Refeição R$1.100,00 ao mês</t>
+          <t>Vale Refeição de R$1.100,00 ao mês</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -8536,25 +9266,30 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Ambiente dinâmico, Incentivo ao desenvolvimento pessoal e profissional, Subsídio de estudos, Vale Transporte, Convênio com Academia de Ginástica</t>
+          <t>Ambiente dinâmico, Incentivo ao desenvolvimento pessoal e profissional, Vale Transporte, Convênio com Academia de Ginástica</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Estudantes de Relações Internacionais ou Comércio Exterior</t>
+          <t>Relações Internacionais ou Comércio Exterior</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
+          <t>A partir do 2º ano</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
           <t>Importação Marítima</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>Atuação na área de Importação Marítima</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>Vaga90.pdf</t>
         </is>
@@ -8578,17 +9313,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Cursando Administração de Empresas, conhecimento em Excel nível intermediário</t>
+          <t>Cursando Administração de Empresas, Excel intermediário</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não mencionada</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Segunda a sexta-feira</t>
+          <t>Segunda à sexta-feira</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -8598,20 +9333,25 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Estudantes de Administração de Empresas</t>
+          <t>Administração de Empresas</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>1º ou 2º ano</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Atendimento aos franqueados e varejo, relacionamento com áreas da empresa, interação com plataforma de atendimento, relacionamento com transportadora, cálculos de abatimentos, solicitação de coleta correios, lançamentos de despesas.</t>
+          <t>Atendimento, relacionamento, cálculos, lançamentos</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
+        <is>
+          <t>Atendimento aos franqueados e varejo, relacionamento com outras áreas da empresa, interação com plataforma de atendimento, relacionamento com transportadora, cálculos de abatimentos, solicitação de coleta correios, lançamentos de despesas.</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Vaga91.pdf</t>
         </is>
@@ -8655,20 +9395,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Análises clínicas</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, biossegurança, comunicação com pacientes e equipe multidisciplinar.</t>
+          <t>Análises clínicas, coleta de amostras, interpretação de resultados, elaboração de laudos, biossegurança</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
+        <is>
+          <t>Coleta de amostras, análises clínicas, interpretação de resultados, elaboração de laudos, uso de equipamentos laboratoriais, utilização de ferramentas de informática, seguir normas regulatórias, manter biossegurança, comunicar-se com pacientes e equipe, demonstrar proatividade e trabalho em equipe.</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Vaga92.pdf</t>
         </is>
@@ -8692,12 +9437,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Estudante de Direito a partir do 4º semestre, pacote office, disponibilidade para estagiar por 1 ano e 6 meses</t>
+          <t>Estudante de Direito a partir do 4º semestre, pacote office, experiência em estágio corporativo, interesse em pesquisas e consultas, trabalho em grupo</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>não especificada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -8707,25 +9452,30 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>não especificados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Estudantes de Direito</t>
+          <t>Direito</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
+          <t>A partir do 4º semestre</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
           <t>Jurídico Negocial</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Elaboração de Notificações Extrajudiciais, Contratos de Prestações de Serviços, Análise e Ajustes em Contratos, Diligências externas, Apoio em pagamentos, Orientação jurídica interna.</t>
-        </is>
-      </c>
       <c r="K146" t="inlineStr">
+        <is>
+          <t>Elaboração de Notificações Extrajudiciais, elaboração de Contratos, diligências externas, apoio em pagamentos internos, consultorias jurídicas.</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Vaga93.pdf</t>
         </is>
@@ -8754,35 +9504,40 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>PcD</t>
+          <t>Biomedicina</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Laboratório Clínico</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Realizar coleta de amostras, analisar exames, interpretar resultados, manter biossegurança, comunicar-se com pacientes e equipe, trabalhar em equipe.</t>
+          <t>Análises clínicas</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
+        <is>
+          <t>Coleta de amostras, análises clínicas, interpretação de resultados, utilização de equipamentos laboratoriais, entre outros.</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Vaga94.pdf</t>
         </is>
@@ -8811,7 +9566,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Bolsa Auxílio R$ 1.500</t>
+          <t>Bolsa Auxílio de R$ 1.500</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -8821,25 +9576,30 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>VR, VT, Seguro de vida, Clube de descontos, Day-off de aniversário, Academia Totalpass, Desconto em Ingressos/acompanhantes em eventos, Pet Friendly</t>
+          <t>VR, VT, Seguro de vida, Clube de descontos, Day-off de aniversário, Academia Totalpass, Desconto em Ingressos, Pet Friendly</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Pessoas Estagiárias</t>
+          <t>Superior</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
+          <t>Não mencionado</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
           <t>Financeira e Compras</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Atuar no setor administrativo da empresa</t>
-        </is>
-      </c>
       <c r="K148" t="inlineStr">
+        <is>
+          <t>Atuar no setor administrativo da empresa UMAUMA.</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Vaga95.pdf</t>
         </is>
@@ -8863,7 +9623,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Pacote Office básico, disponibilidade de estágio período manhã/tarde, estudantes de diversos cursos de nível superior/tecnólogos</t>
+          <t>Pacote Office básico, disponibilidade para estágio período manhã/tarde, estudantes de diversos cursos listados</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8883,20 +9643,25 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Estudantes dos cursos mencionados</t>
+          <t>Engenharia Elétrica, Engenharia Mecânica, Engenharia Mecatrônica, etc.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Diversas áreas relacionadas à tecnologia</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
+          <t>Tecnologia da Informação, Negócios, Logística, etc.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
           <t>Aprender novas tecnologias, se adaptar às mudanças, estagiar e estudar, entre outros.</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>Vaga96.pdf</t>
         </is>
@@ -8920,7 +9685,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Ensino Superior cursando (Administração ou Logística), residir em Feira de Santana, conhecimento básico em Excel, disponibilidade de 2 anos de curso para estagiar, disponibilidade de estagiar de segunda a sexta das 10h às 18h, experiência com atendimento ao público será um diferencial</t>
+          <t>Administração ou Logística, residir em Feira de Santana, conhecimento básico em Excel, disponibilidade de 2 anos de curso para estagiar, disponibilidade de estagiar de segunda a sexta das 10h às 18h, experiência com atendimento ao público será um diferencial</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8940,20 +9705,25 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Estudantes de Administração ou Logística</t>
+          <t>Administração ou Logística</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
+          <t>Não mencionado</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
           <t>Logística</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>Recebimento de notas fiscais, alimentação de planilhas, atendimento ao cliente, movimentação de rotinas no sistema FUSION, suporte à área, acompanhamento de indicadores, gestão do sistema.</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>Vaga97.pdf</t>
         </is>
@@ -8977,40 +9747,45 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Graduação em Enfermagem, Experiência prévia em sala de aula</t>
+          <t>Graduação em Enfermagem, experiência prévia em sala de aula</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não mencionada</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não mencionada</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Não especificado</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Estudantes de Enfermagem</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Educação</t>
+          <t>Não mencionados</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Auxiliar no planejamento e execução de atividades de monitoria, realizar acompanhamento e avaliação do desempenho dos alunos, elaborar relatórios, dar suporte aos professores, participar de reuniões e projetos, realizar apresentações e treinamentos, contribuir para melhoria dos processos educacionais.</t>
+          <t>Educação, Enfermagem</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
+        <is>
+          <t>Auxiliar no planejamento e execução de atividades de monitoria, realizar acompanhamento e avaliação de desempenho dos alunos, elaborar relatórios, dar suporte aos professores, participar de reuniões e projetos, realizar apresentações e treinamentos, contribuir para melhoria dos processos educacionais.</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Vaga98.pdf</t>
         </is>
@@ -9034,40 +9809,45 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Curso de Enfermagem, matrícula ativa, idade mínima, disponibilidade de horário, proatividade, responsabilidade, organização, trabalho em equipe, capacidade de lidar com situações de stress e emergência</t>
+          <t>Estar matriculado em curso de Enfermagem, apresentar comprovante de matrícula e histórico escolar, idade mínima exigida, disponibilidade de horário, proatividade, responsabilidade, organização, capacidade de trabalhar em equipe, lidar com situações de stress e emergência.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Não mencionada</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Não mencionados</t>
+          <t>Não especificados</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Estudantes de curso de graduação em Enfermagem</t>
+          <t>Enfermagem</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Medicina Diagnóstica</t>
+          <t>Não especificado</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Apoio ao paciente, preparação e manuseio de equipamentos, administração de medicamentos, monitoramento de reações, aplicação de protocolos de higiene, participação em treinamentos e cursos de atualização.</t>
+          <t>Medicina diagnóstica</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
+        <is>
+          <t>Apoio ao paciente, administração de medicamentos, monitoramento dos pacientes, aplicação de protocolos de higiene, participação em treinamentos, integração de novas técnicas.</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Vaga99.pdf</t>
         </is>
